--- a/escala25.xlsx
+++ b/escala25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidal\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07A2A24C-BCD4-422F-ABB8-1607257F6A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4526891B-3144-411F-BA6B-3206B29A0894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21255" yWindow="1290" windowWidth="13980" windowHeight="19545" xr2:uid="{203903AA-C59F-46B0-B0DA-5C67DD6FA865}"/>
+    <workbookView xWindow="6735" yWindow="1695" windowWidth="19755" windowHeight="19545" xr2:uid="{203903AA-C59F-46B0-B0DA-5C67DD6FA865}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="603">
   <si>
     <t>Equipo</t>
   </si>
@@ -1840,6 +1840,12 @@
   </si>
   <si>
     <t>ATHLETIC CLUB</t>
+  </si>
+  <si>
+    <t>REAL SOCIEDAD</t>
+  </si>
+  <si>
+    <t>LAS PALMAS</t>
   </si>
 </sst>
 </file>
@@ -2235,10 +2241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB1F9E9-06F4-4FFD-8ED9-371667988A0B}">
-  <dimension ref="A1:D577"/>
+  <dimension ref="A1:D635"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
-      <selection activeCell="A520" sqref="A520:A547"/>
+    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
+      <selection activeCell="A607" sqref="A607:A635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10319,6 +10325,818 @@
       </c>
       <c r="D577">
         <v>14</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>602</v>
+      </c>
+      <c r="B578" t="s">
+        <v>5</v>
+      </c>
+      <c r="C578" t="s">
+        <v>208</v>
+      </c>
+      <c r="D578">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>602</v>
+      </c>
+      <c r="B579" t="s">
+        <v>5</v>
+      </c>
+      <c r="C579" t="s">
+        <v>209</v>
+      </c>
+      <c r="D579">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>602</v>
+      </c>
+      <c r="B580" t="s">
+        <v>5</v>
+      </c>
+      <c r="C580" t="s">
+        <v>210</v>
+      </c>
+      <c r="D580">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>602</v>
+      </c>
+      <c r="B581" t="s">
+        <v>9</v>
+      </c>
+      <c r="C581" t="s">
+        <v>211</v>
+      </c>
+      <c r="D581">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>602</v>
+      </c>
+      <c r="B582" t="s">
+        <v>9</v>
+      </c>
+      <c r="C582" t="s">
+        <v>212</v>
+      </c>
+      <c r="D582">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>602</v>
+      </c>
+      <c r="B583" t="s">
+        <v>9</v>
+      </c>
+      <c r="C583" t="s">
+        <v>213</v>
+      </c>
+      <c r="D583">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>602</v>
+      </c>
+      <c r="B584" t="s">
+        <v>9</v>
+      </c>
+      <c r="C584" t="s">
+        <v>214</v>
+      </c>
+      <c r="D584">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>602</v>
+      </c>
+      <c r="B585" t="s">
+        <v>9</v>
+      </c>
+      <c r="C585" t="s">
+        <v>215</v>
+      </c>
+      <c r="D585">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>602</v>
+      </c>
+      <c r="B586" t="s">
+        <v>9</v>
+      </c>
+      <c r="C586" t="s">
+        <v>216</v>
+      </c>
+      <c r="D586">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>602</v>
+      </c>
+      <c r="B587" t="s">
+        <v>9</v>
+      </c>
+      <c r="C587" t="s">
+        <v>217</v>
+      </c>
+      <c r="D587">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>602</v>
+      </c>
+      <c r="B588" t="s">
+        <v>9</v>
+      </c>
+      <c r="C588" t="s">
+        <v>218</v>
+      </c>
+      <c r="D588">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>602</v>
+      </c>
+      <c r="B589" t="s">
+        <v>18</v>
+      </c>
+      <c r="C589" t="s">
+        <v>219</v>
+      </c>
+      <c r="D589">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>602</v>
+      </c>
+      <c r="B590" t="s">
+        <v>18</v>
+      </c>
+      <c r="C590" t="s">
+        <v>220</v>
+      </c>
+      <c r="D590">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>602</v>
+      </c>
+      <c r="B591" t="s">
+        <v>18</v>
+      </c>
+      <c r="C591" t="s">
+        <v>221</v>
+      </c>
+      <c r="D591">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>602</v>
+      </c>
+      <c r="B592" t="s">
+        <v>18</v>
+      </c>
+      <c r="C592" t="s">
+        <v>222</v>
+      </c>
+      <c r="D592">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>602</v>
+      </c>
+      <c r="B593" t="s">
+        <v>18</v>
+      </c>
+      <c r="C593" t="s">
+        <v>223</v>
+      </c>
+      <c r="D593">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>602</v>
+      </c>
+      <c r="B594" t="s">
+        <v>18</v>
+      </c>
+      <c r="C594" t="s">
+        <v>224</v>
+      </c>
+      <c r="D594">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>602</v>
+      </c>
+      <c r="B595" t="s">
+        <v>18</v>
+      </c>
+      <c r="C595" t="s">
+        <v>225</v>
+      </c>
+      <c r="D595">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>602</v>
+      </c>
+      <c r="B596" t="s">
+        <v>18</v>
+      </c>
+      <c r="C596" t="s">
+        <v>226</v>
+      </c>
+      <c r="D596">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>602</v>
+      </c>
+      <c r="B597" t="s">
+        <v>18</v>
+      </c>
+      <c r="C597" t="s">
+        <v>227</v>
+      </c>
+      <c r="D597">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>602</v>
+      </c>
+      <c r="B598" t="s">
+        <v>18</v>
+      </c>
+      <c r="C598" t="s">
+        <v>228</v>
+      </c>
+      <c r="D598">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>602</v>
+      </c>
+      <c r="B599" t="s">
+        <v>18</v>
+      </c>
+      <c r="C599" t="s">
+        <v>229</v>
+      </c>
+      <c r="D599">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>602</v>
+      </c>
+      <c r="B600" t="s">
+        <v>18</v>
+      </c>
+      <c r="C600" t="s">
+        <v>230</v>
+      </c>
+      <c r="D600">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>602</v>
+      </c>
+      <c r="B601" t="s">
+        <v>18</v>
+      </c>
+      <c r="C601" t="s">
+        <v>231</v>
+      </c>
+      <c r="D601">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>602</v>
+      </c>
+      <c r="B602" t="s">
+        <v>24</v>
+      </c>
+      <c r="C602" t="s">
+        <v>232</v>
+      </c>
+      <c r="D602">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>602</v>
+      </c>
+      <c r="B603" t="s">
+        <v>24</v>
+      </c>
+      <c r="C603" t="s">
+        <v>233</v>
+      </c>
+      <c r="D603">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>602</v>
+      </c>
+      <c r="B604" t="s">
+        <v>24</v>
+      </c>
+      <c r="C604" t="s">
+        <v>234</v>
+      </c>
+      <c r="D604">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>602</v>
+      </c>
+      <c r="B605" t="s">
+        <v>24</v>
+      </c>
+      <c r="C605" t="s">
+        <v>235</v>
+      </c>
+      <c r="D605">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>602</v>
+      </c>
+      <c r="B606" t="s">
+        <v>24</v>
+      </c>
+      <c r="C606" t="s">
+        <v>236</v>
+      </c>
+      <c r="D606">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>601</v>
+      </c>
+      <c r="B607" t="s">
+        <v>5</v>
+      </c>
+      <c r="C607" t="s">
+        <v>237</v>
+      </c>
+      <c r="D607">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>601</v>
+      </c>
+      <c r="B608" t="s">
+        <v>5</v>
+      </c>
+      <c r="C608" t="s">
+        <v>238</v>
+      </c>
+      <c r="D608">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>601</v>
+      </c>
+      <c r="B609" t="s">
+        <v>5</v>
+      </c>
+      <c r="C609" t="s">
+        <v>239</v>
+      </c>
+      <c r="D609">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>601</v>
+      </c>
+      <c r="B610" t="s">
+        <v>9</v>
+      </c>
+      <c r="C610" t="s">
+        <v>240</v>
+      </c>
+      <c r="D610">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>601</v>
+      </c>
+      <c r="B611" t="s">
+        <v>9</v>
+      </c>
+      <c r="C611" t="s">
+        <v>241</v>
+      </c>
+      <c r="D611">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>601</v>
+      </c>
+      <c r="B612" t="s">
+        <v>9</v>
+      </c>
+      <c r="C612" t="s">
+        <v>242</v>
+      </c>
+      <c r="D612">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>601</v>
+      </c>
+      <c r="B613" t="s">
+        <v>9</v>
+      </c>
+      <c r="C613" t="s">
+        <v>243</v>
+      </c>
+      <c r="D613">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>601</v>
+      </c>
+      <c r="B614" t="s">
+        <v>9</v>
+      </c>
+      <c r="C614" t="s">
+        <v>244</v>
+      </c>
+      <c r="D614">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>601</v>
+      </c>
+      <c r="B615" t="s">
+        <v>9</v>
+      </c>
+      <c r="C615" t="s">
+        <v>245</v>
+      </c>
+      <c r="D615">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>601</v>
+      </c>
+      <c r="B616" t="s">
+        <v>9</v>
+      </c>
+      <c r="C616" t="s">
+        <v>246</v>
+      </c>
+      <c r="D616">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>601</v>
+      </c>
+      <c r="B617" t="s">
+        <v>9</v>
+      </c>
+      <c r="C617" t="s">
+        <v>247</v>
+      </c>
+      <c r="D617">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>601</v>
+      </c>
+      <c r="B618" t="s">
+        <v>9</v>
+      </c>
+      <c r="C618" t="s">
+        <v>248</v>
+      </c>
+      <c r="D618">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>601</v>
+      </c>
+      <c r="B619" t="s">
+        <v>9</v>
+      </c>
+      <c r="C619" t="s">
+        <v>249</v>
+      </c>
+      <c r="D619">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>601</v>
+      </c>
+      <c r="B620" t="s">
+        <v>9</v>
+      </c>
+      <c r="C620" t="s">
+        <v>250</v>
+      </c>
+      <c r="D620">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>601</v>
+      </c>
+      <c r="B621" t="s">
+        <v>18</v>
+      </c>
+      <c r="C621" t="s">
+        <v>251</v>
+      </c>
+      <c r="D621">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>601</v>
+      </c>
+      <c r="B622" t="s">
+        <v>18</v>
+      </c>
+      <c r="C622" t="s">
+        <v>252</v>
+      </c>
+      <c r="D622">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>601</v>
+      </c>
+      <c r="B623" t="s">
+        <v>18</v>
+      </c>
+      <c r="C623" t="s">
+        <v>253</v>
+      </c>
+      <c r="D623">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>601</v>
+      </c>
+      <c r="B624" t="s">
+        <v>18</v>
+      </c>
+      <c r="C624" t="s">
+        <v>254</v>
+      </c>
+      <c r="D624">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>601</v>
+      </c>
+      <c r="B625" t="s">
+        <v>18</v>
+      </c>
+      <c r="C625" t="s">
+        <v>255</v>
+      </c>
+      <c r="D625">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>601</v>
+      </c>
+      <c r="B626" t="s">
+        <v>18</v>
+      </c>
+      <c r="C626" t="s">
+        <v>256</v>
+      </c>
+      <c r="D626">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>601</v>
+      </c>
+      <c r="B627" t="s">
+        <v>18</v>
+      </c>
+      <c r="C627" t="s">
+        <v>257</v>
+      </c>
+      <c r="D627">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>601</v>
+      </c>
+      <c r="B628" t="s">
+        <v>18</v>
+      </c>
+      <c r="C628" t="s">
+        <v>258</v>
+      </c>
+      <c r="D628">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>601</v>
+      </c>
+      <c r="B629" t="s">
+        <v>18</v>
+      </c>
+      <c r="C629" t="s">
+        <v>259</v>
+      </c>
+      <c r="D629">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>601</v>
+      </c>
+      <c r="B630" t="s">
+        <v>24</v>
+      </c>
+      <c r="C630" t="s">
+        <v>260</v>
+      </c>
+      <c r="D630">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>601</v>
+      </c>
+      <c r="B631" t="s">
+        <v>24</v>
+      </c>
+      <c r="C631" t="s">
+        <v>261</v>
+      </c>
+      <c r="D631">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>601</v>
+      </c>
+      <c r="B632" t="s">
+        <v>24</v>
+      </c>
+      <c r="C632" t="s">
+        <v>262</v>
+      </c>
+      <c r="D632">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>601</v>
+      </c>
+      <c r="B633" t="s">
+        <v>24</v>
+      </c>
+      <c r="C633" t="s">
+        <v>263</v>
+      </c>
+      <c r="D633">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>601</v>
+      </c>
+      <c r="B634" t="s">
+        <v>24</v>
+      </c>
+      <c r="C634" t="s">
+        <v>264</v>
+      </c>
+      <c r="D634">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>601</v>
+      </c>
+      <c r="B635" t="s">
+        <v>24</v>
+      </c>
+      <c r="C635" t="s">
+        <v>265</v>
+      </c>
+      <c r="D635">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/escala25.xlsx
+++ b/escala25.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4526891B-3144-411F-BA6B-3206B29A0894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EA0826-B529-48E3-80C2-40B37B8DAB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="1695" windowWidth="19755" windowHeight="19545" xr2:uid="{203903AA-C59F-46B0-B0DA-5C67DD6FA865}"/>
+    <workbookView xWindow="32535" yWindow="1530" windowWidth="17460" windowHeight="19545" xr2:uid="{203903AA-C59F-46B0-B0DA-5C67DD6FA865}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$634</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="603">
   <si>
     <t>Equipo</t>
   </si>
@@ -2241,13 +2244,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB1F9E9-06F4-4FFD-8ED9-371667988A0B}">
-  <dimension ref="A1:D635"/>
+  <dimension ref="A1:D634"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="A607" sqref="A607:A635"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C648" sqref="C648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -5169,10 +5176,10 @@
         <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D209">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5180,13 +5187,13 @@
         <v>177</v>
       </c>
       <c r="B210" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C210" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D210">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5197,10 +5204,10 @@
         <v>18</v>
       </c>
       <c r="C211" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D211">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5211,10 +5218,10 @@
         <v>18</v>
       </c>
       <c r="C212" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D212">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5225,10 +5232,10 @@
         <v>18</v>
       </c>
       <c r="C213" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D213">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5239,10 +5246,10 @@
         <v>18</v>
       </c>
       <c r="C214" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D214">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5253,10 +5260,10 @@
         <v>18</v>
       </c>
       <c r="C215" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D215">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5267,10 +5274,10 @@
         <v>18</v>
       </c>
       <c r="C216" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D216">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5281,10 +5288,10 @@
         <v>18</v>
       </c>
       <c r="C217" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D217">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -5295,10 +5302,10 @@
         <v>18</v>
       </c>
       <c r="C218" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D218">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -5306,13 +5313,13 @@
         <v>177</v>
       </c>
       <c r="B219" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C219" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D219">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -5323,7 +5330,7 @@
         <v>24</v>
       </c>
       <c r="C220" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D220">
         <v>15</v>
@@ -5337,10 +5344,10 @@
         <v>24</v>
       </c>
       <c r="C221" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D221">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5351,10 +5358,10 @@
         <v>24</v>
       </c>
       <c r="C222" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D222">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -5365,10 +5372,10 @@
         <v>24</v>
       </c>
       <c r="C223" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D223">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -5379,24 +5386,24 @@
         <v>24</v>
       </c>
       <c r="C224" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D224">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>177</v>
+        <v>266</v>
       </c>
       <c r="B225" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>265</v>
+        <v>65</v>
       </c>
       <c r="D225">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -5407,10 +5414,10 @@
         <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D226">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -5421,10 +5428,10 @@
         <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D227">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5435,7 +5442,7 @@
         <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D228">
         <v>15</v>
@@ -5446,13 +5453,13 @@
         <v>266</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C229" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D229">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -5463,10 +5470,10 @@
         <v>9</v>
       </c>
       <c r="C230" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D230">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -5477,7 +5484,7 @@
         <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D231">
         <v>19</v>
@@ -5491,10 +5498,10 @@
         <v>9</v>
       </c>
       <c r="C232" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D232">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -5505,7 +5512,7 @@
         <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D233">
         <v>18</v>
@@ -5519,10 +5526,10 @@
         <v>9</v>
       </c>
       <c r="C234" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D234">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -5533,10 +5540,10 @@
         <v>9</v>
       </c>
       <c r="C235" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D235">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5547,10 +5554,10 @@
         <v>9</v>
       </c>
       <c r="C236" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D236">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5561,10 +5568,10 @@
         <v>9</v>
       </c>
       <c r="C237" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D237">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -5575,10 +5582,10 @@
         <v>9</v>
       </c>
       <c r="C238" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D238">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -5586,13 +5593,13 @@
         <v>266</v>
       </c>
       <c r="B239" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C239" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D239">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -5603,7 +5610,7 @@
         <v>18</v>
       </c>
       <c r="C240" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D240">
         <v>19</v>
@@ -5617,10 +5624,10 @@
         <v>18</v>
       </c>
       <c r="C241" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D241">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -5631,10 +5638,10 @@
         <v>18</v>
       </c>
       <c r="C242" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D242">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -5645,10 +5652,10 @@
         <v>18</v>
       </c>
       <c r="C243" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D243">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -5659,10 +5666,10 @@
         <v>18</v>
       </c>
       <c r="C244" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D244">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -5673,10 +5680,10 @@
         <v>18</v>
       </c>
       <c r="C245" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D245">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -5687,10 +5694,10 @@
         <v>18</v>
       </c>
       <c r="C246" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D246">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -5701,7 +5708,7 @@
         <v>18</v>
       </c>
       <c r="C247" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D247">
         <v>18</v>
@@ -5715,10 +5722,10 @@
         <v>18</v>
       </c>
       <c r="C248" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D248">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -5726,13 +5733,13 @@
         <v>266</v>
       </c>
       <c r="B249" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C249" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D249">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -5743,10 +5750,10 @@
         <v>24</v>
       </c>
       <c r="C250" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D250">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -5757,10 +5764,10 @@
         <v>24</v>
       </c>
       <c r="C251" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D251">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -5771,10 +5778,10 @@
         <v>24</v>
       </c>
       <c r="C252" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D252">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -5785,24 +5792,24 @@
         <v>24</v>
       </c>
       <c r="C253" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D253">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B254" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
-        <v>93</v>
+        <v>268</v>
       </c>
       <c r="D254">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -5813,10 +5820,10 @@
         <v>5</v>
       </c>
       <c r="C255" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D255">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5827,10 +5834,10 @@
         <v>5</v>
       </c>
       <c r="C256" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D256">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5841,10 +5848,10 @@
         <v>5</v>
       </c>
       <c r="C257" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D257">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5855,10 +5862,10 @@
         <v>5</v>
       </c>
       <c r="C258" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D258">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5866,13 +5873,13 @@
         <v>267</v>
       </c>
       <c r="B259" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C259" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D259">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5883,10 +5890,10 @@
         <v>9</v>
       </c>
       <c r="C260" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D260">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5897,10 +5904,10 @@
         <v>9</v>
       </c>
       <c r="C261" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D261">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5911,10 +5918,10 @@
         <v>9</v>
       </c>
       <c r="C262" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D262">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5925,10 +5932,10 @@
         <v>9</v>
       </c>
       <c r="C263" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D263">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5939,10 +5946,10 @@
         <v>9</v>
       </c>
       <c r="C264" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D264">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5953,10 +5960,10 @@
         <v>9</v>
       </c>
       <c r="C265" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D265">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5967,10 +5974,10 @@
         <v>9</v>
       </c>
       <c r="C266" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D266">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5981,7 +5988,7 @@
         <v>9</v>
       </c>
       <c r="C267" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D267">
         <v>13</v>
@@ -5992,10 +5999,10 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C268" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D268">
         <v>13</v>
@@ -6009,10 +6016,10 @@
         <v>18</v>
       </c>
       <c r="C269" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D269">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -6023,10 +6030,10 @@
         <v>18</v>
       </c>
       <c r="C270" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D270">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -6037,10 +6044,10 @@
         <v>18</v>
       </c>
       <c r="C271" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D271">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -6051,10 +6058,10 @@
         <v>18</v>
       </c>
       <c r="C272" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D272">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -6065,7 +6072,7 @@
         <v>18</v>
       </c>
       <c r="C273" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D273">
         <v>12</v>
@@ -6079,10 +6086,10 @@
         <v>18</v>
       </c>
       <c r="C274" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D274">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -6093,10 +6100,10 @@
         <v>18</v>
       </c>
       <c r="C275" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D275">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -6107,10 +6114,10 @@
         <v>18</v>
       </c>
       <c r="C276" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D276">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -6118,13 +6125,13 @@
         <v>267</v>
       </c>
       <c r="B277" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C277" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D277">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -6135,7 +6142,7 @@
         <v>24</v>
       </c>
       <c r="C278" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D278">
         <v>18</v>
@@ -6149,10 +6156,10 @@
         <v>24</v>
       </c>
       <c r="C279" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D279">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6163,10 +6170,10 @@
         <v>24</v>
       </c>
       <c r="C280" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D280">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6177,7 +6184,7 @@
         <v>24</v>
       </c>
       <c r="C281" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D281">
         <v>15</v>
@@ -6191,13 +6198,13 @@
         <v>24</v>
       </c>
       <c r="C282" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D282">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>267</v>
       </c>
@@ -6205,21 +6212,21 @@
         <v>24</v>
       </c>
       <c r="C283" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D283">
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="B284" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C284" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D284">
         <v>13</v>
@@ -6233,10 +6240,10 @@
         <v>5</v>
       </c>
       <c r="C285" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D285">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6247,10 +6254,10 @@
         <v>5</v>
       </c>
       <c r="C286" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D286">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6258,10 +6265,10 @@
         <v>298</v>
       </c>
       <c r="B287" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C287" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D287">
         <v>10</v>
@@ -6275,10 +6282,10 @@
         <v>9</v>
       </c>
       <c r="C288" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D288">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6289,10 +6296,10 @@
         <v>9</v>
       </c>
       <c r="C289" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D289">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6303,10 +6310,10 @@
         <v>9</v>
       </c>
       <c r="C290" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D290">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6317,10 +6324,10 @@
         <v>9</v>
       </c>
       <c r="C291" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D291">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6331,10 +6338,10 @@
         <v>9</v>
       </c>
       <c r="C292" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D292">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6345,7 +6352,7 @@
         <v>9</v>
       </c>
       <c r="C293" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D293">
         <v>13</v>
@@ -6359,7 +6366,7 @@
         <v>9</v>
       </c>
       <c r="C294" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D294">
         <v>13</v>
@@ -6373,10 +6380,10 @@
         <v>9</v>
       </c>
       <c r="C295" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D295">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -6387,10 +6394,10 @@
         <v>9</v>
       </c>
       <c r="C296" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D296">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -6398,13 +6405,13 @@
         <v>298</v>
       </c>
       <c r="B297" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C297" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D297">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -6415,7 +6422,7 @@
         <v>18</v>
       </c>
       <c r="C298" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D298">
         <v>12</v>
@@ -6429,10 +6436,10 @@
         <v>18</v>
       </c>
       <c r="C299" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D299">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6443,10 +6450,10 @@
         <v>18</v>
       </c>
       <c r="C300" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D300">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6457,10 +6464,10 @@
         <v>18</v>
       </c>
       <c r="C301" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D301">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6471,10 +6478,10 @@
         <v>18</v>
       </c>
       <c r="C302" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D302">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6485,7 +6492,7 @@
         <v>18</v>
       </c>
       <c r="C303" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D303">
         <v>12</v>
@@ -6499,10 +6506,10 @@
         <v>18</v>
       </c>
       <c r="C304" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D304">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6513,10 +6520,10 @@
         <v>18</v>
       </c>
       <c r="C305" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D305">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6524,13 +6531,13 @@
         <v>298</v>
       </c>
       <c r="B306" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C306" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D306">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6541,10 +6548,10 @@
         <v>24</v>
       </c>
       <c r="C307" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D307">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6555,10 +6562,10 @@
         <v>24</v>
       </c>
       <c r="C308" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D308">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6569,10 +6576,10 @@
         <v>24</v>
       </c>
       <c r="C309" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D309">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6583,10 +6590,10 @@
         <v>24</v>
       </c>
       <c r="C310" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D310">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -6597,10 +6604,10 @@
         <v>24</v>
       </c>
       <c r="C311" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D311">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -6611,24 +6618,24 @@
         <v>24</v>
       </c>
       <c r="C312" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D312">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="B313" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C313" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D313">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -6639,10 +6646,10 @@
         <v>5</v>
       </c>
       <c r="C314" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D314">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -6653,10 +6660,10 @@
         <v>5</v>
       </c>
       <c r="C315" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D315">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -6667,10 +6674,10 @@
         <v>5</v>
       </c>
       <c r="C316" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D316">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -6678,13 +6685,13 @@
         <v>328</v>
       </c>
       <c r="B317" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C317" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D317">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -6695,10 +6702,10 @@
         <v>9</v>
       </c>
       <c r="C318" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D318">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -6709,10 +6716,10 @@
         <v>9</v>
       </c>
       <c r="C319" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D319">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -6723,10 +6730,10 @@
         <v>9</v>
       </c>
       <c r="C320" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D320">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -6737,10 +6744,10 @@
         <v>9</v>
       </c>
       <c r="C321" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D321">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -6751,7 +6758,7 @@
         <v>9</v>
       </c>
       <c r="C322" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D322">
         <v>15</v>
@@ -6765,10 +6772,10 @@
         <v>9</v>
       </c>
       <c r="C323" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D323">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -6779,10 +6786,10 @@
         <v>9</v>
       </c>
       <c r="C324" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D324">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -6793,10 +6800,10 @@
         <v>9</v>
       </c>
       <c r="C325" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D325">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -6804,13 +6811,13 @@
         <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C326" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D326">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -6821,10 +6828,10 @@
         <v>18</v>
       </c>
       <c r="C327" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D327">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -6835,10 +6842,10 @@
         <v>18</v>
       </c>
       <c r="C328" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D328">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -6849,10 +6856,10 @@
         <v>18</v>
       </c>
       <c r="C329" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D329">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -6863,10 +6870,10 @@
         <v>18</v>
       </c>
       <c r="C330" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D330">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -6877,10 +6884,10 @@
         <v>18</v>
       </c>
       <c r="C331" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D331">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -6891,10 +6898,10 @@
         <v>18</v>
       </c>
       <c r="C332" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D332">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -6905,10 +6912,10 @@
         <v>18</v>
       </c>
       <c r="C333" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D333">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -6919,10 +6926,10 @@
         <v>18</v>
       </c>
       <c r="C334" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D334">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -6933,10 +6940,10 @@
         <v>18</v>
       </c>
       <c r="C335" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D335">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -6947,7 +6954,7 @@
         <v>18</v>
       </c>
       <c r="C336" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D336">
         <v>11</v>
@@ -6961,10 +6968,10 @@
         <v>18</v>
       </c>
       <c r="C337" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D337">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -6972,13 +6979,13 @@
         <v>328</v>
       </c>
       <c r="B338" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C338" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D338">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -6989,7 +6996,7 @@
         <v>24</v>
       </c>
       <c r="C339" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D339">
         <v>17</v>
@@ -7003,10 +7010,10 @@
         <v>24</v>
       </c>
       <c r="C340" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D340">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -7017,10 +7024,10 @@
         <v>24</v>
       </c>
       <c r="C341" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D341">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -7031,10 +7038,10 @@
         <v>24</v>
       </c>
       <c r="C342" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D342">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -7045,24 +7052,24 @@
         <v>24</v>
       </c>
       <c r="C343" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D343">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="B344" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C344" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D344">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -7073,10 +7080,10 @@
         <v>5</v>
       </c>
       <c r="C345" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D345">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -7087,10 +7094,10 @@
         <v>5</v>
       </c>
       <c r="C346" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D346">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -7101,10 +7108,10 @@
         <v>5</v>
       </c>
       <c r="C347" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D347">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -7112,10 +7119,10 @@
         <v>360</v>
       </c>
       <c r="B348" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C348" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D348">
         <v>21</v>
@@ -7129,10 +7136,10 @@
         <v>9</v>
       </c>
       <c r="C349" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D349">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -7143,10 +7150,10 @@
         <v>9</v>
       </c>
       <c r="C350" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D350">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -7157,10 +7164,10 @@
         <v>9</v>
       </c>
       <c r="C351" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D351">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7171,10 +7178,10 @@
         <v>9</v>
       </c>
       <c r="C352" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D352">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7185,10 +7192,10 @@
         <v>9</v>
       </c>
       <c r="C353" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D353">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7199,7 +7206,7 @@
         <v>9</v>
       </c>
       <c r="C354" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D354">
         <v>20</v>
@@ -7213,10 +7220,10 @@
         <v>9</v>
       </c>
       <c r="C355" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D355">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7227,10 +7234,10 @@
         <v>9</v>
       </c>
       <c r="C356" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D356">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7241,10 +7248,10 @@
         <v>9</v>
       </c>
       <c r="C357" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D357">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7255,10 +7262,10 @@
         <v>9</v>
       </c>
       <c r="C358" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D358">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7266,13 +7273,13 @@
         <v>360</v>
       </c>
       <c r="B359" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C359" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D359">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -7283,10 +7290,10 @@
         <v>18</v>
       </c>
       <c r="C360" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D360">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -7297,10 +7304,10 @@
         <v>18</v>
       </c>
       <c r="C361" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D361">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -7311,10 +7318,10 @@
         <v>18</v>
       </c>
       <c r="C362" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D362">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7325,10 +7332,10 @@
         <v>18</v>
       </c>
       <c r="C363" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D363">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7339,10 +7346,10 @@
         <v>18</v>
       </c>
       <c r="C364" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D364">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7353,10 +7360,10 @@
         <v>18</v>
       </c>
       <c r="C365" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D365">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7367,10 +7374,10 @@
         <v>18</v>
       </c>
       <c r="C366" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D366">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -7381,10 +7388,10 @@
         <v>18</v>
       </c>
       <c r="C367" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D367">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7392,13 +7399,13 @@
         <v>360</v>
       </c>
       <c r="B368" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C368" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D368">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -7409,10 +7416,10 @@
         <v>24</v>
       </c>
       <c r="C369" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D369">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7423,10 +7430,10 @@
         <v>24</v>
       </c>
       <c r="C370" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D370">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -7437,10 +7444,10 @@
         <v>24</v>
       </c>
       <c r="C371" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D371">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7451,10 +7458,10 @@
         <v>24</v>
       </c>
       <c r="C372" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D372">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -7465,13 +7472,13 @@
         <v>24</v>
       </c>
       <c r="C373" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D373">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>360</v>
       </c>
@@ -7479,24 +7486,24 @@
         <v>24</v>
       </c>
       <c r="C374" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D374">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="B375" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C375" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D375">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -7507,10 +7514,10 @@
         <v>5</v>
       </c>
       <c r="C376" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D376">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7521,10 +7528,10 @@
         <v>5</v>
       </c>
       <c r="C377" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D377">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7535,10 +7542,10 @@
         <v>5</v>
       </c>
       <c r="C378" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D378">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7546,13 +7553,13 @@
         <v>392</v>
       </c>
       <c r="B379" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C379" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D379">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -7563,10 +7570,10 @@
         <v>9</v>
       </c>
       <c r="C380" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D380">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7577,10 +7584,10 @@
         <v>9</v>
       </c>
       <c r="C381" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D381">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7591,7 +7598,7 @@
         <v>9</v>
       </c>
       <c r="C382" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D382">
         <v>12</v>
@@ -7605,10 +7612,10 @@
         <v>9</v>
       </c>
       <c r="C383" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D383">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7619,10 +7626,10 @@
         <v>9</v>
       </c>
       <c r="C384" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D384">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -7633,10 +7640,10 @@
         <v>9</v>
       </c>
       <c r="C385" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D385">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -7647,10 +7654,10 @@
         <v>9</v>
       </c>
       <c r="C386" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D386">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -7661,10 +7668,10 @@
         <v>9</v>
       </c>
       <c r="C387" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D387">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -7675,10 +7682,10 @@
         <v>9</v>
       </c>
       <c r="C388" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D388">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -7689,10 +7696,10 @@
         <v>9</v>
       </c>
       <c r="C389" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D389">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7703,10 +7710,10 @@
         <v>9</v>
       </c>
       <c r="C390" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D390">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7714,13 +7721,13 @@
         <v>392</v>
       </c>
       <c r="B391" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C391" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D391">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7731,10 +7738,10 @@
         <v>18</v>
       </c>
       <c r="C392" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D392">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -7745,10 +7752,10 @@
         <v>18</v>
       </c>
       <c r="C393" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D393">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -7759,10 +7766,10 @@
         <v>18</v>
       </c>
       <c r="C394" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D394">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -7773,10 +7780,10 @@
         <v>18</v>
       </c>
       <c r="C395" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D395">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -7787,10 +7794,10 @@
         <v>18</v>
       </c>
       <c r="C396" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D396">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -7801,10 +7808,10 @@
         <v>18</v>
       </c>
       <c r="C397" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D397">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -7812,13 +7819,13 @@
         <v>392</v>
       </c>
       <c r="B398" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C398" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D398">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7829,10 +7836,10 @@
         <v>24</v>
       </c>
       <c r="C399" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D399">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -7843,10 +7850,10 @@
         <v>24</v>
       </c>
       <c r="C400" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D400">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -7857,10 +7864,10 @@
         <v>24</v>
       </c>
       <c r="C401" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D401">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -7871,10 +7878,10 @@
         <v>24</v>
       </c>
       <c r="C402" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D402">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -7885,10 +7892,10 @@
         <v>24</v>
       </c>
       <c r="C403" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D403">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -7899,24 +7906,24 @@
         <v>24</v>
       </c>
       <c r="C404" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D404">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="B405" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C405" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D405">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -7927,10 +7934,10 @@
         <v>5</v>
       </c>
       <c r="C406" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D406">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -7941,10 +7948,10 @@
         <v>5</v>
       </c>
       <c r="C407" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D407">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -7952,13 +7959,13 @@
         <v>423</v>
       </c>
       <c r="B408" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C408" t="s">
-        <v>426</v>
+        <v>110</v>
       </c>
       <c r="D408">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -7969,7 +7976,7 @@
         <v>9</v>
       </c>
       <c r="C409" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="D409">
         <v>11</v>
@@ -7983,10 +7990,10 @@
         <v>9</v>
       </c>
       <c r="C410" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D410">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -7997,10 +8004,10 @@
         <v>9</v>
       </c>
       <c r="C411" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D411">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -8011,10 +8018,10 @@
         <v>9</v>
       </c>
       <c r="C412" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D412">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -8025,10 +8032,10 @@
         <v>9</v>
       </c>
       <c r="C413" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D413">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -8039,7 +8046,7 @@
         <v>9</v>
       </c>
       <c r="C414" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D414">
         <v>13</v>
@@ -8053,10 +8060,10 @@
         <v>9</v>
       </c>
       <c r="C415" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D415">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -8067,10 +8074,10 @@
         <v>9</v>
       </c>
       <c r="C416" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D416">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -8078,13 +8085,13 @@
         <v>423</v>
       </c>
       <c r="B417" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C417" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D417">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -8095,10 +8102,10 @@
         <v>18</v>
       </c>
       <c r="C418" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D418">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -8109,10 +8116,10 @@
         <v>18</v>
       </c>
       <c r="C419" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D419">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -8123,10 +8130,10 @@
         <v>18</v>
       </c>
       <c r="C420" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D420">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -8137,10 +8144,10 @@
         <v>18</v>
       </c>
       <c r="C421" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D421">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -8151,10 +8158,10 @@
         <v>18</v>
       </c>
       <c r="C422" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D422">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -8165,7 +8172,7 @@
         <v>18</v>
       </c>
       <c r="C423" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D423">
         <v>11</v>
@@ -8179,10 +8186,10 @@
         <v>18</v>
       </c>
       <c r="C424" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D424">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -8193,10 +8200,10 @@
         <v>18</v>
       </c>
       <c r="C425" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D425">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8204,13 +8211,13 @@
         <v>423</v>
       </c>
       <c r="B426" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C426" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D426">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8221,10 +8228,10 @@
         <v>24</v>
       </c>
       <c r="C427" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D427">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8235,10 +8242,10 @@
         <v>24</v>
       </c>
       <c r="C428" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D428">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8249,10 +8256,10 @@
         <v>24</v>
       </c>
       <c r="C429" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D429">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -8263,10 +8270,10 @@
         <v>24</v>
       </c>
       <c r="C430" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D430">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8277,24 +8284,24 @@
         <v>24</v>
       </c>
       <c r="C431" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D431">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="B432" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C432" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D432">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8305,10 +8312,10 @@
         <v>5</v>
       </c>
       <c r="C433" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D433">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8319,10 +8326,10 @@
         <v>5</v>
       </c>
       <c r="C434" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D434">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8330,13 +8337,13 @@
         <v>450</v>
       </c>
       <c r="B435" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C435" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D435">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8347,10 +8354,10 @@
         <v>9</v>
       </c>
       <c r="C436" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D436">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8361,10 +8368,10 @@
         <v>9</v>
       </c>
       <c r="C437" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D437">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8375,7 +8382,7 @@
         <v>9</v>
       </c>
       <c r="C438" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D438">
         <v>14</v>
@@ -8389,10 +8396,10 @@
         <v>9</v>
       </c>
       <c r="C439" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D439">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8403,10 +8410,10 @@
         <v>9</v>
       </c>
       <c r="C440" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D440">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8417,10 +8424,10 @@
         <v>9</v>
       </c>
       <c r="C441" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D441">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8431,10 +8438,10 @@
         <v>9</v>
       </c>
       <c r="C442" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D442">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8445,10 +8452,10 @@
         <v>9</v>
       </c>
       <c r="C443" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D443">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8459,10 +8466,10 @@
         <v>9</v>
       </c>
       <c r="C444" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D444">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8473,10 +8480,10 @@
         <v>9</v>
       </c>
       <c r="C445" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D445">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8487,10 +8494,10 @@
         <v>9</v>
       </c>
       <c r="C446" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D446">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8501,7 +8508,7 @@
         <v>9</v>
       </c>
       <c r="C447" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D447">
         <v>10</v>
@@ -8515,7 +8522,7 @@
         <v>9</v>
       </c>
       <c r="C448" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D448">
         <v>10</v>
@@ -8526,13 +8533,13 @@
         <v>450</v>
       </c>
       <c r="B449" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C449" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D449">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8543,7 +8550,7 @@
         <v>18</v>
       </c>
       <c r="C450" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D450">
         <v>15</v>
@@ -8557,10 +8564,10 @@
         <v>18</v>
       </c>
       <c r="C451" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D451">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8571,10 +8578,10 @@
         <v>18</v>
       </c>
       <c r="C452" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D452">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -8585,10 +8592,10 @@
         <v>18</v>
       </c>
       <c r="C453" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D453">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -8599,10 +8606,10 @@
         <v>18</v>
       </c>
       <c r="C454" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D454">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -8613,10 +8620,10 @@
         <v>18</v>
       </c>
       <c r="C455" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D455">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8627,10 +8634,10 @@
         <v>18</v>
       </c>
       <c r="C456" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D456">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8638,13 +8645,13 @@
         <v>450</v>
       </c>
       <c r="B457" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C457" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D457">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8655,10 +8662,10 @@
         <v>24</v>
       </c>
       <c r="C458" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D458">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8669,10 +8676,10 @@
         <v>24</v>
       </c>
       <c r="C459" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D459">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8683,10 +8690,10 @@
         <v>24</v>
       </c>
       <c r="C460" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D460">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8697,10 +8704,10 @@
         <v>24</v>
       </c>
       <c r="C461" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D461">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8711,10 +8718,10 @@
         <v>24</v>
       </c>
       <c r="C462" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D462">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8725,13 +8732,13 @@
         <v>24</v>
       </c>
       <c r="C463" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D463">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>450</v>
       </c>
@@ -8739,24 +8746,24 @@
         <v>24</v>
       </c>
       <c r="C464" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D464">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="B465" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C465" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D465">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -8767,10 +8774,10 @@
         <v>5</v>
       </c>
       <c r="C466" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D466">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -8781,10 +8788,10 @@
         <v>5</v>
       </c>
       <c r="C467" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D467">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8792,13 +8799,13 @@
         <v>484</v>
       </c>
       <c r="B468" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C468" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D468">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8809,10 +8816,10 @@
         <v>9</v>
       </c>
       <c r="C469" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D469">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8823,7 +8830,7 @@
         <v>9</v>
       </c>
       <c r="C470" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D470">
         <v>15</v>
@@ -8837,10 +8844,10 @@
         <v>9</v>
       </c>
       <c r="C471" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D471">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8851,7 +8858,7 @@
         <v>9</v>
       </c>
       <c r="C472" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D472">
         <v>14</v>
@@ -8865,10 +8872,10 @@
         <v>9</v>
       </c>
       <c r="C473" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D473">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -8879,7 +8886,7 @@
         <v>9</v>
       </c>
       <c r="C474" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D474">
         <v>13</v>
@@ -8893,10 +8900,10 @@
         <v>9</v>
       </c>
       <c r="C475" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D475">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8907,10 +8914,10 @@
         <v>9</v>
       </c>
       <c r="C476" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D476">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8921,10 +8928,10 @@
         <v>9</v>
       </c>
       <c r="C477" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D477">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8932,13 +8939,13 @@
         <v>484</v>
       </c>
       <c r="B478" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C478" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D478">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -8949,7 +8956,7 @@
         <v>18</v>
       </c>
       <c r="C479" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D479">
         <v>14</v>
@@ -8963,10 +8970,10 @@
         <v>18</v>
       </c>
       <c r="C480" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D480">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8977,10 +8984,10 @@
         <v>18</v>
       </c>
       <c r="C481" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D481">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8991,10 +8998,10 @@
         <v>18</v>
       </c>
       <c r="C482" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D482">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -9005,10 +9012,10 @@
         <v>18</v>
       </c>
       <c r="C483" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D483">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -9019,10 +9026,10 @@
         <v>18</v>
       </c>
       <c r="C484" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D484">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -9033,10 +9040,10 @@
         <v>18</v>
       </c>
       <c r="C485" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D485">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -9047,10 +9054,10 @@
         <v>18</v>
       </c>
       <c r="C486" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D486">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -9058,13 +9065,13 @@
         <v>484</v>
       </c>
       <c r="B487" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C487" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D487">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -9075,10 +9082,10 @@
         <v>24</v>
       </c>
       <c r="C488" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D488">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -9089,10 +9096,10 @@
         <v>24</v>
       </c>
       <c r="C489" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D489">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -9103,10 +9110,10 @@
         <v>24</v>
       </c>
       <c r="C490" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D490">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -9117,10 +9124,10 @@
         <v>24</v>
       </c>
       <c r="C491" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D491">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -9131,10 +9138,10 @@
         <v>24</v>
       </c>
       <c r="C492" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D492">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -9145,24 +9152,24 @@
         <v>24</v>
       </c>
       <c r="C493" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D493">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="B494" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C494" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D494">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -9173,10 +9180,10 @@
         <v>5</v>
       </c>
       <c r="C495" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D495">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -9187,10 +9194,10 @@
         <v>5</v>
       </c>
       <c r="C496" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D496">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -9198,13 +9205,13 @@
         <v>514</v>
       </c>
       <c r="B497" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C497" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D497">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -9215,10 +9222,10 @@
         <v>9</v>
       </c>
       <c r="C498" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D498">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -9229,10 +9236,10 @@
         <v>9</v>
       </c>
       <c r="C499" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D499">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -9243,10 +9250,10 @@
         <v>9</v>
       </c>
       <c r="C500" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D500">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9257,10 +9264,10 @@
         <v>9</v>
       </c>
       <c r="C501" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D501">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9271,10 +9278,10 @@
         <v>9</v>
       </c>
       <c r="C502" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D502">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9285,10 +9292,10 @@
         <v>9</v>
       </c>
       <c r="C503" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D503">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -9296,13 +9303,13 @@
         <v>514</v>
       </c>
       <c r="B504" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C504" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D504">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -9313,10 +9320,10 @@
         <v>18</v>
       </c>
       <c r="C505" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D505">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9327,10 +9334,10 @@
         <v>18</v>
       </c>
       <c r="C506" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D506">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -9341,10 +9348,10 @@
         <v>18</v>
       </c>
       <c r="C507" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D507">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -9355,10 +9362,10 @@
         <v>18</v>
       </c>
       <c r="C508" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D508">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -9369,10 +9376,10 @@
         <v>18</v>
       </c>
       <c r="C509" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D509">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -9383,7 +9390,7 @@
         <v>18</v>
       </c>
       <c r="C510" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D510">
         <v>16</v>
@@ -9397,10 +9404,10 @@
         <v>18</v>
       </c>
       <c r="C511" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D511">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9408,13 +9415,13 @@
         <v>514</v>
       </c>
       <c r="B512" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C512" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D512">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9425,7 +9432,7 @@
         <v>24</v>
       </c>
       <c r="C513" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D513">
         <v>16</v>
@@ -9439,10 +9446,10 @@
         <v>24</v>
       </c>
       <c r="C514" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D514">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -9453,7 +9460,7 @@
         <v>24</v>
       </c>
       <c r="C515" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D515">
         <v>17</v>
@@ -9467,10 +9474,10 @@
         <v>24</v>
       </c>
       <c r="C516" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D516">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9481,13 +9488,13 @@
         <v>24</v>
       </c>
       <c r="C517" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D517">
         <v>15</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>514</v>
       </c>
@@ -9495,24 +9502,24 @@
         <v>24</v>
       </c>
       <c r="C518" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D518">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="519" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>514</v>
+        <v>540</v>
       </c>
       <c r="B519" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C519" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D519">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -9523,7 +9530,7 @@
         <v>5</v>
       </c>
       <c r="C520" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D520">
         <v>13</v>
@@ -9534,13 +9541,13 @@
         <v>540</v>
       </c>
       <c r="B521" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C521" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D521">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -9551,10 +9558,10 @@
         <v>9</v>
       </c>
       <c r="C522" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D522">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -9565,10 +9572,10 @@
         <v>9</v>
       </c>
       <c r="C523" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D523">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -9579,10 +9586,10 @@
         <v>9</v>
       </c>
       <c r="C524" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D524">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -9593,10 +9600,10 @@
         <v>9</v>
       </c>
       <c r="C525" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D525">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -9607,10 +9614,10 @@
         <v>9</v>
       </c>
       <c r="C526" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D526">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -9621,7 +9628,7 @@
         <v>9</v>
       </c>
       <c r="C527" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D527">
         <v>13</v>
@@ -9635,10 +9642,10 @@
         <v>9</v>
       </c>
       <c r="C528" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D528">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -9649,10 +9656,10 @@
         <v>9</v>
       </c>
       <c r="C529" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D529">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -9660,13 +9667,13 @@
         <v>540</v>
       </c>
       <c r="B530" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C530" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D530">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -9677,10 +9684,10 @@
         <v>18</v>
       </c>
       <c r="C531" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D531">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -9691,10 +9698,10 @@
         <v>18</v>
       </c>
       <c r="C532" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D532">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -9705,7 +9712,7 @@
         <v>18</v>
       </c>
       <c r="C533" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D533">
         <v>13</v>
@@ -9719,10 +9726,10 @@
         <v>18</v>
       </c>
       <c r="C534" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D534">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -9733,10 +9740,10 @@
         <v>18</v>
       </c>
       <c r="C535" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D535">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
@@ -9747,10 +9754,10 @@
         <v>18</v>
       </c>
       <c r="C536" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D536">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -9761,10 +9768,10 @@
         <v>18</v>
       </c>
       <c r="C537" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D537">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
@@ -9775,10 +9782,10 @@
         <v>18</v>
       </c>
       <c r="C538" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D538">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -9789,10 +9796,10 @@
         <v>18</v>
       </c>
       <c r="C539" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D539">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
@@ -9803,10 +9810,10 @@
         <v>18</v>
       </c>
       <c r="C540" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D540">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
@@ -9814,13 +9821,13 @@
         <v>540</v>
       </c>
       <c r="B541" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C541" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D541">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -9831,10 +9838,10 @@
         <v>24</v>
       </c>
       <c r="C542" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D542">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
@@ -9845,7 +9852,7 @@
         <v>24</v>
       </c>
       <c r="C543" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D543">
         <v>13</v>
@@ -9859,10 +9866,10 @@
         <v>24</v>
       </c>
       <c r="C544" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D544">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -9873,10 +9880,10 @@
         <v>24</v>
       </c>
       <c r="C545" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D545">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
@@ -9887,24 +9894,24 @@
         <v>24</v>
       </c>
       <c r="C546" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D546">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>540</v>
+        <v>569</v>
       </c>
       <c r="B547" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C547" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D547">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
@@ -9915,10 +9922,10 @@
         <v>5</v>
       </c>
       <c r="C548" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D548">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
@@ -9929,10 +9936,10 @@
         <v>5</v>
       </c>
       <c r="C549" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D549">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
@@ -9940,13 +9947,13 @@
         <v>569</v>
       </c>
       <c r="B550" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C550" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D550">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
@@ -9957,10 +9964,10 @@
         <v>9</v>
       </c>
       <c r="C551" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D551">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
@@ -9971,10 +9978,10 @@
         <v>9</v>
       </c>
       <c r="C552" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D552">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
@@ -9985,10 +9992,10 @@
         <v>9</v>
       </c>
       <c r="C553" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D553">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
@@ -9999,10 +10006,10 @@
         <v>9</v>
       </c>
       <c r="C554" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D554">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
@@ -10013,10 +10020,10 @@
         <v>9</v>
       </c>
       <c r="C555" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D555">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
@@ -10027,7 +10034,7 @@
         <v>9</v>
       </c>
       <c r="C556" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D556">
         <v>15</v>
@@ -10041,10 +10048,10 @@
         <v>9</v>
       </c>
       <c r="C557" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D557">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
@@ -10055,10 +10062,10 @@
         <v>9</v>
       </c>
       <c r="C558" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D558">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
@@ -10069,10 +10076,10 @@
         <v>9</v>
       </c>
       <c r="C559" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D559">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
@@ -10083,7 +10090,7 @@
         <v>9</v>
       </c>
       <c r="C560" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D560">
         <v>13</v>
@@ -10094,13 +10101,13 @@
         <v>569</v>
       </c>
       <c r="B561" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C561" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D561">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
@@ -10111,10 +10118,10 @@
         <v>18</v>
       </c>
       <c r="C562" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D562">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
@@ -10125,10 +10132,10 @@
         <v>18</v>
       </c>
       <c r="C563" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D563">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
@@ -10139,10 +10146,10 @@
         <v>18</v>
       </c>
       <c r="C564" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D564">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
@@ -10153,10 +10160,10 @@
         <v>18</v>
       </c>
       <c r="C565" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D565">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
@@ -10167,10 +10174,10 @@
         <v>18</v>
       </c>
       <c r="C566" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D566">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
@@ -10181,7 +10188,7 @@
         <v>18</v>
       </c>
       <c r="C567" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D567">
         <v>15</v>
@@ -10195,10 +10202,10 @@
         <v>18</v>
       </c>
       <c r="C568" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D568">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -10209,10 +10216,10 @@
         <v>18</v>
       </c>
       <c r="C569" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D569">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
@@ -10220,13 +10227,13 @@
         <v>569</v>
       </c>
       <c r="B570" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C570" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D570">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
@@ -10237,10 +10244,10 @@
         <v>24</v>
       </c>
       <c r="C571" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D571">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
@@ -10251,10 +10258,10 @@
         <v>24</v>
       </c>
       <c r="C572" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D572">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
@@ -10265,7 +10272,7 @@
         <v>24</v>
       </c>
       <c r="C573" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D573">
         <v>18</v>
@@ -10279,10 +10286,10 @@
         <v>24</v>
       </c>
       <c r="C574" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D574">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
@@ -10293,10 +10300,10 @@
         <v>24</v>
       </c>
       <c r="C575" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D575">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
@@ -10307,7 +10314,7 @@
         <v>24</v>
       </c>
       <c r="C576" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D576">
         <v>14</v>
@@ -10315,13 +10322,13 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
       <c r="B577" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C577" t="s">
-        <v>599</v>
+        <v>208</v>
       </c>
       <c r="D577">
         <v>14</v>
@@ -10335,10 +10342,10 @@
         <v>5</v>
       </c>
       <c r="C578" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D578">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
@@ -10349,10 +10356,10 @@
         <v>5</v>
       </c>
       <c r="C579" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D579">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
@@ -10360,10 +10367,10 @@
         <v>602</v>
       </c>
       <c r="B580" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C580" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D580">
         <v>11</v>
@@ -10377,10 +10384,10 @@
         <v>9</v>
       </c>
       <c r="C581" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D581">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
@@ -10391,7 +10398,7 @@
         <v>9</v>
       </c>
       <c r="C582" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D582">
         <v>12</v>
@@ -10405,10 +10412,10 @@
         <v>9</v>
       </c>
       <c r="C583" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D583">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
@@ -10419,10 +10426,10 @@
         <v>9</v>
       </c>
       <c r="C584" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D584">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
@@ -10433,10 +10440,10 @@
         <v>9</v>
       </c>
       <c r="C585" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D585">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
@@ -10447,10 +10454,10 @@
         <v>9</v>
       </c>
       <c r="C586" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D586">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
@@ -10461,10 +10468,10 @@
         <v>9</v>
       </c>
       <c r="C587" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D587">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
@@ -10472,13 +10479,13 @@
         <v>602</v>
       </c>
       <c r="B588" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C588" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D588">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
@@ -10489,10 +10496,10 @@
         <v>18</v>
       </c>
       <c r="C589" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D589">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
@@ -10503,10 +10510,10 @@
         <v>18</v>
       </c>
       <c r="C590" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D590">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
@@ -10517,10 +10524,10 @@
         <v>18</v>
       </c>
       <c r="C591" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D591">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
@@ -10531,10 +10538,10 @@
         <v>18</v>
       </c>
       <c r="C592" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D592">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
@@ -10545,7 +10552,7 @@
         <v>18</v>
       </c>
       <c r="C593" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D593">
         <v>12</v>
@@ -10559,10 +10566,10 @@
         <v>18</v>
       </c>
       <c r="C594" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D594">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
@@ -10573,10 +10580,10 @@
         <v>18</v>
       </c>
       <c r="C595" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D595">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
@@ -10587,10 +10594,10 @@
         <v>18</v>
       </c>
       <c r="C596" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D596">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
@@ -10601,10 +10608,10 @@
         <v>18</v>
       </c>
       <c r="C597" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D597">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
@@ -10615,10 +10622,10 @@
         <v>18</v>
       </c>
       <c r="C598" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D598">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
@@ -10629,10 +10636,10 @@
         <v>18</v>
       </c>
       <c r="C599" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D599">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
@@ -10643,10 +10650,10 @@
         <v>18</v>
       </c>
       <c r="C600" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D600">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
@@ -10654,13 +10661,13 @@
         <v>602</v>
       </c>
       <c r="B601" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C601" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D601">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
@@ -10671,10 +10678,10 @@
         <v>24</v>
       </c>
       <c r="C602" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D602">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
@@ -10685,7 +10692,7 @@
         <v>24</v>
       </c>
       <c r="C603" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D603">
         <v>12</v>
@@ -10699,10 +10706,10 @@
         <v>24</v>
       </c>
       <c r="C604" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D604">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
@@ -10713,24 +10720,24 @@
         <v>24</v>
       </c>
       <c r="C605" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D605">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B606" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C606" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D606">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
@@ -10741,10 +10748,10 @@
         <v>5</v>
       </c>
       <c r="C607" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D607">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
@@ -10755,10 +10762,10 @@
         <v>5</v>
       </c>
       <c r="C608" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D608">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
@@ -10766,13 +10773,13 @@
         <v>601</v>
       </c>
       <c r="B609" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C609" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D609">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
@@ -10783,7 +10790,7 @@
         <v>9</v>
       </c>
       <c r="C610" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D610">
         <v>13</v>
@@ -10797,10 +10804,10 @@
         <v>9</v>
       </c>
       <c r="C611" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D611">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
@@ -10811,10 +10818,10 @@
         <v>9</v>
       </c>
       <c r="C612" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D612">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
@@ -10825,7 +10832,7 @@
         <v>9</v>
       </c>
       <c r="C613" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D613">
         <v>14</v>
@@ -10839,10 +10846,10 @@
         <v>9</v>
       </c>
       <c r="C614" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D614">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
@@ -10853,10 +10860,10 @@
         <v>9</v>
       </c>
       <c r="C615" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D615">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
@@ -10867,7 +10874,7 @@
         <v>9</v>
       </c>
       <c r="C616" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D616">
         <v>17</v>
@@ -10881,10 +10888,10 @@
         <v>9</v>
       </c>
       <c r="C617" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D617">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
@@ -10895,10 +10902,10 @@
         <v>9</v>
       </c>
       <c r="C618" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D618">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
@@ -10909,10 +10916,10 @@
         <v>9</v>
       </c>
       <c r="C619" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D619">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
@@ -10920,13 +10927,13 @@
         <v>601</v>
       </c>
       <c r="B620" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C620" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D620">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
@@ -10937,10 +10944,10 @@
         <v>18</v>
       </c>
       <c r="C621" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D621">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
@@ -10951,10 +10958,10 @@
         <v>18</v>
       </c>
       <c r="C622" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D622">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
@@ -10965,10 +10972,10 @@
         <v>18</v>
       </c>
       <c r="C623" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D623">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
@@ -10979,10 +10986,10 @@
         <v>18</v>
       </c>
       <c r="C624" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D624">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
@@ -10993,10 +11000,10 @@
         <v>18</v>
       </c>
       <c r="C625" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D625">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
@@ -11007,10 +11014,10 @@
         <v>18</v>
       </c>
       <c r="C626" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D626">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
@@ -11021,10 +11028,10 @@
         <v>18</v>
       </c>
       <c r="C627" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D627">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
@@ -11035,10 +11042,10 @@
         <v>18</v>
       </c>
       <c r="C628" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D628">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
@@ -11046,13 +11053,13 @@
         <v>601</v>
       </c>
       <c r="B629" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C629" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D629">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
@@ -11063,7 +11070,7 @@
         <v>24</v>
       </c>
       <c r="C630" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D630">
         <v>15</v>
@@ -11077,10 +11084,10 @@
         <v>24</v>
       </c>
       <c r="C631" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D631">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
@@ -11091,10 +11098,10 @@
         <v>24</v>
       </c>
       <c r="C632" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D632">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
@@ -11105,10 +11112,10 @@
         <v>24</v>
       </c>
       <c r="C633" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D633">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
@@ -11119,27 +11126,14 @@
         <v>24</v>
       </c>
       <c r="C634" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D634">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A635" t="s">
-        <v>601</v>
-      </c>
-      <c r="B635" t="s">
-        <v>24</v>
-      </c>
-      <c r="C635" t="s">
-        <v>265</v>
-      </c>
-      <c r="D635">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D634" xr:uid="{BAB1F9E9-06F4-4FFD-8ED9-371667988A0B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/escala25.xlsx
+++ b/escala25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EA0826-B529-48E3-80C2-40B37B8DAB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE8F2B0-64FA-4912-BA53-A69614B56E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32535" yWindow="1530" windowWidth="17460" windowHeight="19545" xr2:uid="{203903AA-C59F-46B0-B0DA-5C67DD6FA865}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$634</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$576</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="602">
   <si>
     <t>Equipo</t>
   </si>
@@ -787,9 +787,6 @@
   </si>
   <si>
     <t>NAYEF AGUERD</t>
-  </si>
-  <si>
-    <t>JON ARAMBURU</t>
   </si>
   <si>
     <t>JON MARTÍN</t>
@@ -2244,10 +2241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB1F9E9-06F4-4FFD-8ED9-371667988A0B}">
-  <dimension ref="A1:D634"/>
+  <dimension ref="A1:D576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C648" sqref="C648"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="G221" sqref="G221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3770,7 +3767,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
@@ -3784,7 +3781,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
@@ -3798,7 +3795,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -3812,7 +3809,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -3826,7 +3823,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B113" t="s">
         <v>9</v>
@@ -3840,7 +3837,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B114" t="s">
         <v>9</v>
@@ -3854,7 +3851,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B115" t="s">
         <v>9</v>
@@ -3868,7 +3865,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B116" t="s">
         <v>9</v>
@@ -3882,7 +3879,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B117" t="s">
         <v>9</v>
@@ -3896,7 +3893,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B118" t="s">
         <v>9</v>
@@ -3910,7 +3907,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B119" t="s">
         <v>9</v>
@@ -3924,7 +3921,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B120" t="s">
         <v>9</v>
@@ -3938,7 +3935,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B121" t="s">
         <v>9</v>
@@ -3952,7 +3949,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B122" t="s">
         <v>9</v>
@@ -3966,7 +3963,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B123" t="s">
         <v>18</v>
@@ -3980,7 +3977,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B124" t="s">
         <v>18</v>
@@ -3994,7 +3991,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B125" t="s">
         <v>18</v>
@@ -4008,7 +4005,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B126" t="s">
         <v>18</v>
@@ -4022,7 +4019,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B127" t="s">
         <v>18</v>
@@ -4036,7 +4033,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B128" t="s">
         <v>18</v>
@@ -4050,7 +4047,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B129" t="s">
         <v>18</v>
@@ -4064,7 +4061,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B130" t="s">
         <v>24</v>
@@ -4078,7 +4075,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B131" t="s">
         <v>24</v>
@@ -4092,7 +4089,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B132" t="s">
         <v>24</v>
@@ -4106,7 +4103,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B133" t="s">
         <v>24</v>
@@ -4120,7 +4117,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B134" t="s">
         <v>24</v>
@@ -4134,7 +4131,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B135" t="s">
         <v>24</v>
@@ -4148,7 +4145,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B136" t="s">
         <v>24</v>
@@ -4162,7 +4159,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B137" t="s">
         <v>24</v>
@@ -4596,7 +4593,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
@@ -4610,7 +4607,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
@@ -4624,7 +4621,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -4638,7 +4635,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B171" t="s">
         <v>9</v>
@@ -4652,7 +4649,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B172" t="s">
         <v>9</v>
@@ -4666,7 +4663,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B173" t="s">
         <v>9</v>
@@ -4680,7 +4677,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B174" t="s">
         <v>9</v>
@@ -4694,7 +4691,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B175" t="s">
         <v>9</v>
@@ -4708,7 +4705,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B176" t="s">
         <v>9</v>
@@ -4722,7 +4719,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B177" t="s">
         <v>9</v>
@@ -4736,7 +4733,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B178" t="s">
         <v>9</v>
@@ -4750,7 +4747,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B179" t="s">
         <v>18</v>
@@ -4764,7 +4761,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B180" t="s">
         <v>18</v>
@@ -4778,7 +4775,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B181" t="s">
         <v>18</v>
@@ -4792,7 +4789,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B182" t="s">
         <v>18</v>
@@ -4806,7 +4803,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B183" t="s">
         <v>18</v>
@@ -4820,7 +4817,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B184" t="s">
         <v>18</v>
@@ -4834,7 +4831,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B185" t="s">
         <v>18</v>
@@ -4848,7 +4845,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B186" t="s">
         <v>18</v>
@@ -4862,7 +4859,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B187" t="s">
         <v>18</v>
@@ -4876,7 +4873,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B188" t="s">
         <v>18</v>
@@ -4890,7 +4887,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B189" t="s">
         <v>18</v>
@@ -4904,7 +4901,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B190" t="s">
         <v>18</v>
@@ -4918,7 +4915,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B191" t="s">
         <v>18</v>
@@ -4932,7 +4929,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B192" t="s">
         <v>24</v>
@@ -4946,7 +4943,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B193" t="s">
         <v>24</v>
@@ -4960,7 +4957,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B194" t="s">
         <v>24</v>
@@ -4974,7 +4971,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B195" t="s">
         <v>24</v>
@@ -4988,7 +4985,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="B196" t="s">
         <v>24</v>
@@ -5002,7 +4999,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -5016,7 +5013,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -5030,7 +5027,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -5044,7 +5041,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B200" t="s">
         <v>9</v>
@@ -5058,7 +5055,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B201" t="s">
         <v>9</v>
@@ -5072,7 +5069,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B202" t="s">
         <v>9</v>
@@ -5086,7 +5083,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B203" t="s">
         <v>9</v>
@@ -5100,7 +5097,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B204" t="s">
         <v>9</v>
@@ -5114,7 +5111,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B205" t="s">
         <v>9</v>
@@ -5128,7 +5125,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B206" t="s">
         <v>9</v>
@@ -5142,7 +5139,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B207" t="s">
         <v>9</v>
@@ -5156,7 +5153,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B208" t="s">
         <v>9</v>
@@ -5170,13 +5167,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B209" t="s">
         <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D209">
         <v>12</v>
@@ -5184,13 +5181,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B210" t="s">
         <v>18</v>
       </c>
       <c r="C210" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D210">
         <v>18</v>
@@ -5198,13 +5195,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B211" t="s">
         <v>18</v>
       </c>
       <c r="C211" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D211">
         <v>13</v>
@@ -5212,13 +5209,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B212" t="s">
         <v>18</v>
       </c>
       <c r="C212" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D212">
         <v>15</v>
@@ -5226,13 +5223,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B213" t="s">
         <v>18</v>
       </c>
       <c r="C213" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D213">
         <v>16</v>
@@ -5240,13 +5237,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B214" t="s">
         <v>18</v>
       </c>
       <c r="C214" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D214">
         <v>14</v>
@@ -5254,13 +5251,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B215" t="s">
         <v>18</v>
       </c>
       <c r="C215" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D215">
         <v>18</v>
@@ -5268,13 +5265,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B216" t="s">
         <v>18</v>
       </c>
       <c r="C216" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D216">
         <v>17</v>
@@ -5282,13 +5279,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B217" t="s">
         <v>18</v>
       </c>
       <c r="C217" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D217">
         <v>18</v>
@@ -5296,13 +5293,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B218" t="s">
         <v>18</v>
       </c>
       <c r="C218" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D218">
         <v>14</v>
@@ -5310,13 +5307,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B219" t="s">
         <v>24</v>
       </c>
       <c r="C219" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D219">
         <v>15</v>
@@ -5324,13 +5321,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B220" t="s">
         <v>24</v>
       </c>
       <c r="C220" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D220">
         <v>15</v>
@@ -5338,13 +5335,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B221" t="s">
         <v>24</v>
       </c>
       <c r="C221" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D221">
         <v>14</v>
@@ -5352,13 +5349,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B222" t="s">
         <v>24</v>
       </c>
       <c r="C222" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D222">
         <v>19</v>
@@ -5366,13 +5363,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B223" t="s">
         <v>24</v>
       </c>
       <c r="C223" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D223">
         <v>17</v>
@@ -5380,13 +5377,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
       <c r="B224" t="s">
         <v>24</v>
       </c>
       <c r="C224" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D224">
         <v>20</v>
@@ -5394,7 +5391,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
@@ -5408,7 +5405,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
@@ -5422,7 +5419,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
@@ -5436,7 +5433,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
@@ -5450,7 +5447,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B229" t="s">
         <v>9</v>
@@ -5464,7 +5461,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B230" t="s">
         <v>9</v>
@@ -5478,7 +5475,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B231" t="s">
         <v>9</v>
@@ -5492,7 +5489,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B232" t="s">
         <v>9</v>
@@ -5506,7 +5503,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B233" t="s">
         <v>9</v>
@@ -5520,7 +5517,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B234" t="s">
         <v>9</v>
@@ -5534,7 +5531,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B235" t="s">
         <v>9</v>
@@ -5548,7 +5545,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B236" t="s">
         <v>9</v>
@@ -5562,7 +5559,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B237" t="s">
         <v>9</v>
@@ -5576,7 +5573,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
@@ -5590,7 +5587,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B239" t="s">
         <v>18</v>
@@ -5604,7 +5601,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B240" t="s">
         <v>18</v>
@@ -5618,7 +5615,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B241" t="s">
         <v>18</v>
@@ -5632,7 +5629,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B242" t="s">
         <v>18</v>
@@ -5646,7 +5643,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B243" t="s">
         <v>18</v>
@@ -5660,7 +5657,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B244" t="s">
         <v>18</v>
@@ -5674,7 +5671,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B245" t="s">
         <v>18</v>
@@ -5688,7 +5685,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B246" t="s">
         <v>18</v>
@@ -5702,7 +5699,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B247" t="s">
         <v>18</v>
@@ -5716,7 +5713,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B248" t="s">
         <v>18</v>
@@ -5730,7 +5727,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B249" t="s">
         <v>24</v>
@@ -5744,7 +5741,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B250" t="s">
         <v>24</v>
@@ -5758,7 +5755,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B251" t="s">
         <v>24</v>
@@ -5772,7 +5769,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B252" t="s">
         <v>24</v>
@@ -5786,7 +5783,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B253" t="s">
         <v>24</v>
@@ -5800,13 +5797,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
       </c>
       <c r="C254" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D254">
         <v>13</v>
@@ -5814,13 +5811,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
       </c>
       <c r="C255" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D255">
         <v>15</v>
@@ -5828,13 +5825,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
       </c>
       <c r="C256" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D256">
         <v>10</v>
@@ -5842,13 +5839,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
       </c>
       <c r="C257" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D257">
         <v>9</v>
@@ -5856,13 +5853,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
       </c>
       <c r="C258" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D258">
         <v>8</v>
@@ -5870,13 +5867,13 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B259" t="s">
         <v>9</v>
       </c>
       <c r="C259" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D259">
         <v>13</v>
@@ -5884,13 +5881,13 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B260" t="s">
         <v>9</v>
       </c>
       <c r="C260" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D260">
         <v>15</v>
@@ -5898,13 +5895,13 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B261" t="s">
         <v>9</v>
       </c>
       <c r="C261" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D261">
         <v>11</v>
@@ -5912,13 +5909,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B262" t="s">
         <v>9</v>
       </c>
       <c r="C262" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D262">
         <v>12</v>
@@ -5926,13 +5923,13 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B263" t="s">
         <v>9</v>
       </c>
       <c r="C263" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D263">
         <v>14</v>
@@ -5940,13 +5937,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B264" t="s">
         <v>9</v>
       </c>
       <c r="C264" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D264">
         <v>13</v>
@@ -5954,13 +5951,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B265" t="s">
         <v>9</v>
       </c>
       <c r="C265" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D265">
         <v>12</v>
@@ -5968,13 +5965,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B266" t="s">
         <v>9</v>
       </c>
       <c r="C266" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D266">
         <v>13</v>
@@ -5982,13 +5979,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B267" t="s">
         <v>9</v>
       </c>
       <c r="C267" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D267">
         <v>13</v>
@@ -5996,13 +5993,13 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" t="s">
         <v>18</v>
       </c>
       <c r="C268" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D268">
         <v>13</v>
@@ -6010,13 +6007,13 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B269" t="s">
         <v>18</v>
       </c>
       <c r="C269" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D269">
         <v>14</v>
@@ -6024,13 +6021,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B270" t="s">
         <v>18</v>
       </c>
       <c r="C270" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D270">
         <v>15</v>
@@ -6038,13 +6035,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B271" t="s">
         <v>18</v>
       </c>
       <c r="C271" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D271">
         <v>11</v>
@@ -6052,13 +6049,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B272" t="s">
         <v>18</v>
       </c>
       <c r="C272" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D272">
         <v>12</v>
@@ -6066,13 +6063,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B273" t="s">
         <v>18</v>
       </c>
       <c r="C273" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D273">
         <v>12</v>
@@ -6080,13 +6077,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B274" t="s">
         <v>18</v>
       </c>
       <c r="C274" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D274">
         <v>13</v>
@@ -6094,13 +6091,13 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B275" t="s">
         <v>18</v>
       </c>
       <c r="C275" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D275">
         <v>14</v>
@@ -6108,13 +6105,13 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B276" t="s">
         <v>18</v>
       </c>
       <c r="C276" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D276">
         <v>13</v>
@@ -6122,13 +6119,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B277" t="s">
         <v>24</v>
       </c>
       <c r="C277" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D277">
         <v>18</v>
@@ -6136,13 +6133,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B278" t="s">
         <v>24</v>
       </c>
       <c r="C278" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D278">
         <v>18</v>
@@ -6150,13 +6147,13 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B279" t="s">
         <v>24</v>
       </c>
       <c r="C279" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D279">
         <v>22</v>
@@ -6164,13 +6161,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B280" t="s">
         <v>24</v>
       </c>
       <c r="C280" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D280">
         <v>15</v>
@@ -6178,13 +6175,13 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B281" t="s">
         <v>24</v>
       </c>
       <c r="C281" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D281">
         <v>15</v>
@@ -6192,13 +6189,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B282" t="s">
         <v>24</v>
       </c>
       <c r="C282" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D282">
         <v>13</v>
@@ -6206,13 +6203,13 @@
     </row>
     <row r="283" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B283" t="s">
         <v>24</v>
       </c>
       <c r="C283" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D283">
         <v>13</v>
@@ -6220,13 +6217,13 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B284" t="s">
         <v>5</v>
       </c>
       <c r="C284" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D284">
         <v>13</v>
@@ -6234,13 +6231,13 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B285" t="s">
         <v>5</v>
       </c>
       <c r="C285" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D285">
         <v>14</v>
@@ -6248,13 +6245,13 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B286" t="s">
         <v>5</v>
       </c>
       <c r="C286" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D286">
         <v>10</v>
@@ -6262,13 +6259,13 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B287" t="s">
         <v>9</v>
       </c>
       <c r="C287" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D287">
         <v>10</v>
@@ -6276,13 +6273,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B288" t="s">
         <v>9</v>
       </c>
       <c r="C288" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D288">
         <v>11</v>
@@ -6290,13 +6287,13 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B289" t="s">
         <v>9</v>
       </c>
       <c r="C289" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D289">
         <v>10</v>
@@ -6304,13 +6301,13 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B290" t="s">
         <v>9</v>
       </c>
       <c r="C290" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D290">
         <v>12</v>
@@ -6318,13 +6315,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B291" t="s">
         <v>9</v>
       </c>
       <c r="C291" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D291">
         <v>14</v>
@@ -6332,13 +6329,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B292" t="s">
         <v>9</v>
       </c>
       <c r="C292" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D292">
         <v>13</v>
@@ -6346,13 +6343,13 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B293" t="s">
         <v>9</v>
       </c>
       <c r="C293" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D293">
         <v>13</v>
@@ -6360,13 +6357,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B294" t="s">
         <v>9</v>
       </c>
       <c r="C294" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D294">
         <v>13</v>
@@ -6374,13 +6371,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B295" t="s">
         <v>9</v>
       </c>
       <c r="C295" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D295">
         <v>12</v>
@@ -6388,13 +6385,13 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B296" t="s">
         <v>9</v>
       </c>
       <c r="C296" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D296">
         <v>10</v>
@@ -6402,13 +6399,13 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B297" t="s">
         <v>18</v>
       </c>
       <c r="C297" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D297">
         <v>12</v>
@@ -6416,13 +6413,13 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B298" t="s">
         <v>18</v>
       </c>
       <c r="C298" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D298">
         <v>12</v>
@@ -6430,13 +6427,13 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" t="s">
         <v>18</v>
       </c>
       <c r="C299" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D299">
         <v>14</v>
@@ -6444,13 +6441,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B300" t="s">
         <v>18</v>
       </c>
       <c r="C300" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D300">
         <v>13</v>
@@ -6458,13 +6455,13 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B301" t="s">
         <v>18</v>
       </c>
       <c r="C301" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D301">
         <v>14</v>
@@ -6472,13 +6469,13 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B302" t="s">
         <v>18</v>
       </c>
       <c r="C302" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D302">
         <v>12</v>
@@ -6486,13 +6483,13 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B303" t="s">
         <v>18</v>
       </c>
       <c r="C303" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D303">
         <v>12</v>
@@ -6500,13 +6497,13 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B304" t="s">
         <v>18</v>
       </c>
       <c r="C304" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D304">
         <v>10</v>
@@ -6514,13 +6511,13 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B305" t="s">
         <v>18</v>
       </c>
       <c r="C305" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D305">
         <v>9</v>
@@ -6528,13 +6525,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B306" t="s">
         <v>24</v>
       </c>
       <c r="C306" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D306">
         <v>15</v>
@@ -6542,13 +6539,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B307" t="s">
         <v>24</v>
       </c>
       <c r="C307" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D307">
         <v>11</v>
@@ -6556,13 +6553,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B308" t="s">
         <v>24</v>
       </c>
       <c r="C308" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D308">
         <v>13</v>
@@ -6570,13 +6567,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B309" t="s">
         <v>24</v>
       </c>
       <c r="C309" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D309">
         <v>10</v>
@@ -6584,13 +6581,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B310" t="s">
         <v>24</v>
       </c>
       <c r="C310" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D310">
         <v>12</v>
@@ -6598,13 +6595,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B311" t="s">
         <v>24</v>
       </c>
       <c r="C311" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D311">
         <v>11</v>
@@ -6612,13 +6609,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B312" t="s">
         <v>24</v>
       </c>
       <c r="C312" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D312">
         <v>9</v>
@@ -6626,13 +6623,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B313" t="s">
         <v>5</v>
       </c>
       <c r="C313" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D313">
         <v>13</v>
@@ -6640,13 +6637,13 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B314" t="s">
         <v>5</v>
       </c>
       <c r="C314" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D314">
         <v>15</v>
@@ -6654,13 +6651,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B315" t="s">
         <v>5</v>
       </c>
       <c r="C315" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D315">
         <v>13</v>
@@ -6668,13 +6665,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B316" t="s">
         <v>5</v>
       </c>
       <c r="C316" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D316">
         <v>11</v>
@@ -6682,13 +6679,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B317" t="s">
         <v>9</v>
       </c>
       <c r="C317" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D317">
         <v>14</v>
@@ -6696,13 +6693,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B318" t="s">
         <v>9</v>
       </c>
       <c r="C318" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D318">
         <v>13</v>
@@ -6710,13 +6707,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B319" t="s">
         <v>9</v>
       </c>
       <c r="C319" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D319">
         <v>16</v>
@@ -6724,13 +6721,13 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B320" t="s">
         <v>9</v>
       </c>
       <c r="C320" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D320">
         <v>13</v>
@@ -6738,13 +6735,13 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B321" t="s">
         <v>9</v>
       </c>
       <c r="C321" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D321">
         <v>15</v>
@@ -6752,13 +6749,13 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B322" t="s">
         <v>9</v>
       </c>
       <c r="C322" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D322">
         <v>15</v>
@@ -6766,13 +6763,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B323" t="s">
         <v>9</v>
       </c>
       <c r="C323" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D323">
         <v>14</v>
@@ -6780,13 +6777,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B324" t="s">
         <v>9</v>
       </c>
       <c r="C324" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D324">
         <v>13</v>
@@ -6794,13 +6791,13 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B325" t="s">
         <v>9</v>
       </c>
       <c r="C325" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D325">
         <v>14</v>
@@ -6808,13 +6805,13 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B326" t="s">
         <v>18</v>
       </c>
       <c r="C326" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D326">
         <v>11</v>
@@ -6822,13 +6819,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B327" t="s">
         <v>18</v>
       </c>
       <c r="C327" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D327">
         <v>15</v>
@@ -6836,13 +6833,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B328" t="s">
         <v>18</v>
       </c>
       <c r="C328" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D328">
         <v>13</v>
@@ -6850,13 +6847,13 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329" t="s">
         <v>18</v>
       </c>
       <c r="C329" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D329">
         <v>12</v>
@@ -6864,13 +6861,13 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B330" t="s">
         <v>18</v>
       </c>
       <c r="C330" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D330">
         <v>15</v>
@@ -6878,13 +6875,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B331" t="s">
         <v>18</v>
       </c>
       <c r="C331" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D331">
         <v>14</v>
@@ -6892,13 +6889,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B332" t="s">
         <v>18</v>
       </c>
       <c r="C332" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D332">
         <v>15</v>
@@ -6906,13 +6903,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B333" t="s">
         <v>18</v>
       </c>
       <c r="C333" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D333">
         <v>12</v>
@@ -6920,13 +6917,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B334" t="s">
         <v>18</v>
       </c>
       <c r="C334" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D334">
         <v>13</v>
@@ -6934,13 +6931,13 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B335" t="s">
         <v>18</v>
       </c>
       <c r="C335" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D335">
         <v>11</v>
@@ -6948,13 +6945,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B336" t="s">
         <v>18</v>
       </c>
       <c r="C336" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D336">
         <v>11</v>
@@ -6962,13 +6959,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B337" t="s">
         <v>18</v>
       </c>
       <c r="C337" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D337">
         <v>10</v>
@@ -6976,13 +6973,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B338" t="s">
         <v>24</v>
       </c>
       <c r="C338" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D338">
         <v>17</v>
@@ -6990,13 +6987,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B339" t="s">
         <v>24</v>
       </c>
       <c r="C339" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D339">
         <v>17</v>
@@ -7004,13 +7001,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B340" t="s">
         <v>24</v>
       </c>
       <c r="C340" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D340">
         <v>15</v>
@@ -7018,13 +7015,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B341" t="s">
         <v>24</v>
       </c>
       <c r="C341" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D341">
         <v>16</v>
@@ -7032,13 +7029,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B342" t="s">
         <v>24</v>
       </c>
       <c r="C342" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D342">
         <v>17</v>
@@ -7046,13 +7043,13 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B343" t="s">
         <v>24</v>
       </c>
       <c r="C343" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D343">
         <v>13</v>
@@ -7060,13 +7057,13 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B344" t="s">
         <v>5</v>
       </c>
       <c r="C344" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D344">
         <v>21</v>
@@ -7074,13 +7071,13 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B345" t="s">
         <v>5</v>
       </c>
       <c r="C345" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D345">
         <v>19</v>
@@ -7088,13 +7085,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B346" t="s">
         <v>5</v>
       </c>
       <c r="C346" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D346">
         <v>15</v>
@@ -7102,13 +7099,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B347" t="s">
         <v>5</v>
       </c>
       <c r="C347" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D347">
         <v>21</v>
@@ -7116,13 +7113,13 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B348" t="s">
         <v>9</v>
       </c>
       <c r="C348" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D348">
         <v>21</v>
@@ -7130,13 +7127,13 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B349" t="s">
         <v>9</v>
       </c>
       <c r="C349" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D349">
         <v>20</v>
@@ -7144,13 +7141,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B350" t="s">
         <v>9</v>
       </c>
       <c r="C350" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D350">
         <v>19</v>
@@ -7158,13 +7155,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B351" t="s">
         <v>9</v>
       </c>
       <c r="C351" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D351">
         <v>18</v>
@@ -7172,13 +7169,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B352" t="s">
         <v>9</v>
       </c>
       <c r="C352" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D352">
         <v>21</v>
@@ -7186,13 +7183,13 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B353" t="s">
         <v>9</v>
       </c>
       <c r="C353" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D353">
         <v>20</v>
@@ -7200,13 +7197,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B354" t="s">
         <v>9</v>
       </c>
       <c r="C354" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D354">
         <v>20</v>
@@ -7214,13 +7211,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B355" t="s">
         <v>9</v>
       </c>
       <c r="C355" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D355">
         <v>17</v>
@@ -7228,13 +7225,13 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B356" t="s">
         <v>9</v>
       </c>
       <c r="C356" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D356">
         <v>19</v>
@@ -7242,13 +7239,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B357" t="s">
         <v>9</v>
       </c>
       <c r="C357" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D357">
         <v>17</v>
@@ -7256,13 +7253,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B358" t="s">
         <v>9</v>
       </c>
       <c r="C358" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D358">
         <v>18</v>
@@ -7270,13 +7267,13 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B359" t="s">
         <v>18</v>
       </c>
       <c r="C359" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D359">
         <v>23</v>
@@ -7284,13 +7281,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B360" t="s">
         <v>18</v>
       </c>
       <c r="C360" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D360">
         <v>28</v>
@@ -7298,13 +7295,13 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B361" t="s">
         <v>18</v>
       </c>
       <c r="C361" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D361">
         <v>19</v>
@@ -7312,13 +7309,13 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B362" t="s">
         <v>18</v>
       </c>
       <c r="C362" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D362">
         <v>23</v>
@@ -7326,13 +7323,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B363" t="s">
         <v>18</v>
       </c>
       <c r="C363" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D363">
         <v>19</v>
@@ -7340,13 +7337,13 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B364" t="s">
         <v>18</v>
       </c>
       <c r="C364" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D364">
         <v>17</v>
@@ -7354,13 +7351,13 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B365" t="s">
         <v>18</v>
       </c>
       <c r="C365" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D365">
         <v>21</v>
@@ -7368,13 +7365,13 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B366" t="s">
         <v>18</v>
       </c>
       <c r="C366" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D366">
         <v>28</v>
@@ -7382,13 +7379,13 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B367" t="s">
         <v>18</v>
       </c>
       <c r="C367" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D367">
         <v>17</v>
@@ -7396,13 +7393,13 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B368" t="s">
         <v>24</v>
       </c>
       <c r="C368" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D368">
         <v>40</v>
@@ -7410,13 +7407,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B369" t="s">
         <v>24</v>
       </c>
       <c r="C369" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D369">
         <v>32</v>
@@ -7424,13 +7421,13 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B370" t="s">
         <v>24</v>
       </c>
       <c r="C370" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D370">
         <v>22</v>
@@ -7438,13 +7435,13 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B371" t="s">
         <v>24</v>
       </c>
       <c r="C371" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D371">
         <v>19</v>
@@ -7452,13 +7449,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B372" t="s">
         <v>24</v>
       </c>
       <c r="C372" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D372">
         <v>32</v>
@@ -7466,13 +7463,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B373" t="s">
         <v>24</v>
       </c>
       <c r="C373" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D373">
         <v>19</v>
@@ -7480,13 +7477,13 @@
     </row>
     <row r="374" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B374" t="s">
         <v>24</v>
       </c>
       <c r="C374" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D374">
         <v>24</v>
@@ -7494,13 +7491,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B375" t="s">
         <v>5</v>
       </c>
       <c r="C375" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D375">
         <v>12</v>
@@ -7508,13 +7505,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B376" t="s">
         <v>5</v>
       </c>
       <c r="C376" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D376">
         <v>14</v>
@@ -7522,13 +7519,13 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B377" t="s">
         <v>5</v>
       </c>
       <c r="C377" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D377">
         <v>12</v>
@@ -7536,13 +7533,13 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B378" t="s">
         <v>5</v>
       </c>
       <c r="C378" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D378">
         <v>10</v>
@@ -7550,13 +7547,13 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B379" t="s">
         <v>9</v>
       </c>
       <c r="C379" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D379">
         <v>14</v>
@@ -7564,13 +7561,13 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B380" t="s">
         <v>9</v>
       </c>
       <c r="C380" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D380">
         <v>11</v>
@@ -7578,13 +7575,13 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B381" t="s">
         <v>9</v>
       </c>
       <c r="C381" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D381">
         <v>12</v>
@@ -7592,13 +7589,13 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B382" t="s">
         <v>9</v>
       </c>
       <c r="C382" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D382">
         <v>12</v>
@@ -7606,13 +7603,13 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B383" t="s">
         <v>9</v>
       </c>
       <c r="C383" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D383">
         <v>13</v>
@@ -7620,13 +7617,13 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B384" t="s">
         <v>9</v>
       </c>
       <c r="C384" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D384">
         <v>14</v>
@@ -7634,13 +7631,13 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B385" t="s">
         <v>9</v>
       </c>
       <c r="C385" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D385">
         <v>13</v>
@@ -7648,13 +7645,13 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B386" t="s">
         <v>9</v>
       </c>
       <c r="C386" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D386">
         <v>11</v>
@@ -7662,13 +7659,13 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B387" t="s">
         <v>9</v>
       </c>
       <c r="C387" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D387">
         <v>14</v>
@@ -7676,13 +7673,13 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B388" t="s">
         <v>9</v>
       </c>
       <c r="C388" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D388">
         <v>12</v>
@@ -7690,13 +7687,13 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B389" t="s">
         <v>9</v>
       </c>
       <c r="C389" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D389">
         <v>11</v>
@@ -7704,13 +7701,13 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B390" t="s">
         <v>9</v>
       </c>
       <c r="C390" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D390">
         <v>9</v>
@@ -7718,13 +7715,13 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B391" t="s">
         <v>18</v>
       </c>
       <c r="C391" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D391">
         <v>12</v>
@@ -7732,13 +7729,13 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B392" t="s">
         <v>18</v>
       </c>
       <c r="C392" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D392">
         <v>13</v>
@@ -7746,13 +7743,13 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B393" t="s">
         <v>18</v>
       </c>
       <c r="C393" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D393">
         <v>14</v>
@@ -7760,13 +7757,13 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B394" t="s">
         <v>18</v>
       </c>
       <c r="C394" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D394">
         <v>13</v>
@@ -7774,13 +7771,13 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B395" t="s">
         <v>18</v>
       </c>
       <c r="C395" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D395">
         <v>11</v>
@@ -7788,13 +7785,13 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B396" t="s">
         <v>18</v>
       </c>
       <c r="C396" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D396">
         <v>12</v>
@@ -7802,13 +7799,13 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B397" t="s">
         <v>18</v>
       </c>
       <c r="C397" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D397">
         <v>10</v>
@@ -7816,13 +7813,13 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B398" t="s">
         <v>24</v>
       </c>
       <c r="C398" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D398">
         <v>15</v>
@@ -7830,13 +7827,13 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B399" t="s">
         <v>24</v>
       </c>
       <c r="C399" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D399">
         <v>13</v>
@@ -7844,13 +7841,13 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B400" t="s">
         <v>24</v>
       </c>
       <c r="C400" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D400">
         <v>14</v>
@@ -7858,13 +7855,13 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B401" t="s">
         <v>24</v>
       </c>
       <c r="C401" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D401">
         <v>11</v>
@@ -7872,13 +7869,13 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B402" t="s">
         <v>24</v>
       </c>
       <c r="C402" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D402">
         <v>13</v>
@@ -7886,13 +7883,13 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B403" t="s">
         <v>24</v>
       </c>
       <c r="C403" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D403">
         <v>10</v>
@@ -7900,13 +7897,13 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B404" t="s">
         <v>24</v>
       </c>
       <c r="C404" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D404">
         <v>11</v>
@@ -7914,13 +7911,13 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B405" t="s">
         <v>5</v>
       </c>
       <c r="C405" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D405">
         <v>14</v>
@@ -7928,13 +7925,13 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B406" t="s">
         <v>5</v>
       </c>
       <c r="C406" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D406">
         <v>12</v>
@@ -7942,13 +7939,13 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B407" t="s">
         <v>5</v>
       </c>
       <c r="C407" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D407">
         <v>9</v>
@@ -7956,7 +7953,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B408" t="s">
         <v>9</v>
@@ -7970,13 +7967,13 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B409" t="s">
         <v>9</v>
       </c>
       <c r="C409" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D409">
         <v>11</v>
@@ -7984,13 +7981,13 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B410" t="s">
         <v>9</v>
       </c>
       <c r="C410" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D410">
         <v>12</v>
@@ -7998,13 +7995,13 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B411" t="s">
         <v>9</v>
       </c>
       <c r="C411" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D411">
         <v>13</v>
@@ -8012,13 +8009,13 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B412" t="s">
         <v>9</v>
       </c>
       <c r="C412" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D412">
         <v>12</v>
@@ -8026,13 +8023,13 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B413" t="s">
         <v>9</v>
       </c>
       <c r="C413" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D413">
         <v>13</v>
@@ -8040,13 +8037,13 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B414" t="s">
         <v>9</v>
       </c>
       <c r="C414" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D414">
         <v>13</v>
@@ -8054,13 +8051,13 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B415" t="s">
         <v>9</v>
       </c>
       <c r="C415" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D415">
         <v>12</v>
@@ -8068,13 +8065,13 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B416" t="s">
         <v>9</v>
       </c>
       <c r="C416" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D416">
         <v>10</v>
@@ -8082,13 +8079,13 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B417" t="s">
         <v>18</v>
       </c>
       <c r="C417" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D417">
         <v>13</v>
@@ -8096,13 +8093,13 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B418" t="s">
         <v>18</v>
       </c>
       <c r="C418" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D418">
         <v>12</v>
@@ -8110,13 +8107,13 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B419" t="s">
         <v>18</v>
       </c>
       <c r="C419" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D419">
         <v>14</v>
@@ -8124,13 +8121,13 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B420" t="s">
         <v>18</v>
       </c>
       <c r="C420" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D420">
         <v>15</v>
@@ -8138,13 +8135,13 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B421" t="s">
         <v>18</v>
       </c>
       <c r="C421" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D421">
         <v>13</v>
@@ -8152,13 +8149,13 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B422" t="s">
         <v>18</v>
       </c>
       <c r="C422" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D422">
         <v>11</v>
@@ -8166,13 +8163,13 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B423" t="s">
         <v>18</v>
       </c>
       <c r="C423" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D423">
         <v>11</v>
@@ -8180,13 +8177,13 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B424" t="s">
         <v>18</v>
       </c>
       <c r="C424" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D424">
         <v>10</v>
@@ -8194,13 +8191,13 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B425" t="s">
         <v>18</v>
       </c>
       <c r="C425" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D425">
         <v>12</v>
@@ -8208,13 +8205,13 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B426" t="s">
         <v>24</v>
       </c>
       <c r="C426" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D426">
         <v>13</v>
@@ -8222,13 +8219,13 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B427" t="s">
         <v>24</v>
       </c>
       <c r="C427" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D427">
         <v>16</v>
@@ -8236,13 +8233,13 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B428" t="s">
         <v>24</v>
       </c>
       <c r="C428" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D428">
         <v>13</v>
@@ -8250,13 +8247,13 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B429" t="s">
         <v>24</v>
       </c>
       <c r="C429" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D429">
         <v>14</v>
@@ -8264,13 +8261,13 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B430" t="s">
         <v>24</v>
       </c>
       <c r="C430" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D430">
         <v>15</v>
@@ -8278,13 +8275,13 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B431" t="s">
         <v>24</v>
       </c>
       <c r="C431" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D431">
         <v>12</v>
@@ -8292,13 +8289,13 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B432" t="s">
         <v>5</v>
       </c>
       <c r="C432" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D432">
         <v>11</v>
@@ -8306,13 +8303,13 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B433" t="s">
         <v>5</v>
       </c>
       <c r="C433" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D433">
         <v>14</v>
@@ -8320,13 +8317,13 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B434" t="s">
         <v>5</v>
       </c>
       <c r="C434" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D434">
         <v>17</v>
@@ -8334,13 +8331,13 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B435" t="s">
         <v>9</v>
       </c>
       <c r="C435" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D435">
         <v>16</v>
@@ -8348,13 +8345,13 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B436" t="s">
         <v>9</v>
       </c>
       <c r="C436" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D436">
         <v>15</v>
@@ -8362,13 +8359,13 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B437" t="s">
         <v>9</v>
       </c>
       <c r="C437" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D437">
         <v>14</v>
@@ -8376,13 +8373,13 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B438" t="s">
         <v>9</v>
       </c>
       <c r="C438" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D438">
         <v>14</v>
@@ -8390,13 +8387,13 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B439" t="s">
         <v>9</v>
       </c>
       <c r="C439" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D439">
         <v>16</v>
@@ -8404,13 +8401,13 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B440" t="s">
         <v>9</v>
       </c>
       <c r="C440" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D440">
         <v>14</v>
@@ -8418,13 +8415,13 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B441" t="s">
         <v>9</v>
       </c>
       <c r="C441" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D441">
         <v>15</v>
@@ -8432,13 +8429,13 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B442" t="s">
         <v>9</v>
       </c>
       <c r="C442" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D442">
         <v>13</v>
@@ -8446,13 +8443,13 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B443" t="s">
         <v>9</v>
       </c>
       <c r="C443" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D443">
         <v>11</v>
@@ -8460,13 +8457,13 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B444" t="s">
         <v>9</v>
       </c>
       <c r="C444" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D444">
         <v>13</v>
@@ -8474,13 +8471,13 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B445" t="s">
         <v>9</v>
       </c>
       <c r="C445" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D445">
         <v>11</v>
@@ -8488,13 +8485,13 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B446" t="s">
         <v>9</v>
       </c>
       <c r="C446" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D446">
         <v>10</v>
@@ -8502,13 +8499,13 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B447" t="s">
         <v>9</v>
       </c>
       <c r="C447" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D447">
         <v>10</v>
@@ -8516,13 +8513,13 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B448" t="s">
         <v>9</v>
       </c>
       <c r="C448" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D448">
         <v>10</v>
@@ -8530,13 +8527,13 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B449" t="s">
         <v>18</v>
       </c>
       <c r="C449" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D449">
         <v>15</v>
@@ -8544,13 +8541,13 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B450" t="s">
         <v>18</v>
       </c>
       <c r="C450" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D450">
         <v>15</v>
@@ -8558,13 +8555,13 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B451" t="s">
         <v>18</v>
       </c>
       <c r="C451" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D451">
         <v>14</v>
@@ -8572,13 +8569,13 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B452" t="s">
         <v>18</v>
       </c>
       <c r="C452" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D452">
         <v>16</v>
@@ -8586,13 +8583,13 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B453" t="s">
         <v>18</v>
       </c>
       <c r="C453" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D453">
         <v>15</v>
@@ -8600,13 +8597,13 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B454" t="s">
         <v>18</v>
       </c>
       <c r="C454" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D454">
         <v>14</v>
@@ -8614,13 +8611,13 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B455" t="s">
         <v>18</v>
       </c>
       <c r="C455" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D455">
         <v>10</v>
@@ -8628,13 +8625,13 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B456" t="s">
         <v>18</v>
       </c>
       <c r="C456" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D456">
         <v>11</v>
@@ -8642,13 +8639,13 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B457" t="s">
         <v>24</v>
       </c>
       <c r="C457" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D457">
         <v>15</v>
@@ -8656,13 +8653,13 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B458" t="s">
         <v>24</v>
       </c>
       <c r="C458" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D458">
         <v>16</v>
@@ -8670,13 +8667,13 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B459" t="s">
         <v>24</v>
       </c>
       <c r="C459" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D459">
         <v>18</v>
@@ -8684,13 +8681,13 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B460" t="s">
         <v>24</v>
       </c>
       <c r="C460" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D460">
         <v>16</v>
@@ -8698,13 +8695,13 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B461" t="s">
         <v>24</v>
       </c>
       <c r="C461" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D461">
         <v>17</v>
@@ -8712,13 +8709,13 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B462" t="s">
         <v>24</v>
       </c>
       <c r="C462" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D462">
         <v>12</v>
@@ -8726,13 +8723,13 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B463" t="s">
         <v>24</v>
       </c>
       <c r="C463" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D463">
         <v>13</v>
@@ -8740,13 +8737,13 @@
     </row>
     <row r="464" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B464" t="s">
         <v>24</v>
       </c>
       <c r="C464" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D464">
         <v>11</v>
@@ -8754,13 +8751,13 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B465" t="s">
         <v>5</v>
       </c>
       <c r="C465" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D465">
         <v>14</v>
@@ -8768,13 +8765,13 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B466" t="s">
         <v>5</v>
       </c>
       <c r="C466" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D466">
         <v>16</v>
@@ -8782,13 +8779,13 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B467" t="s">
         <v>5</v>
       </c>
       <c r="C467" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D467">
         <v>12</v>
@@ -8796,13 +8793,13 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B468" t="s">
         <v>9</v>
       </c>
       <c r="C468" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D468">
         <v>14</v>
@@ -8810,13 +8807,13 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B469" t="s">
         <v>9</v>
       </c>
       <c r="C469" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D469">
         <v>15</v>
@@ -8824,13 +8821,13 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B470" t="s">
         <v>9</v>
       </c>
       <c r="C470" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D470">
         <v>15</v>
@@ -8838,13 +8835,13 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B471" t="s">
         <v>9</v>
       </c>
       <c r="C471" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D471">
         <v>14</v>
@@ -8852,13 +8849,13 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B472" t="s">
         <v>9</v>
       </c>
       <c r="C472" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D472">
         <v>14</v>
@@ -8866,13 +8863,13 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B473" t="s">
         <v>9</v>
       </c>
       <c r="C473" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D473">
         <v>13</v>
@@ -8880,13 +8877,13 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B474" t="s">
         <v>9</v>
       </c>
       <c r="C474" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D474">
         <v>13</v>
@@ -8894,13 +8891,13 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B475" t="s">
         <v>9</v>
       </c>
       <c r="C475" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D475">
         <v>16</v>
@@ -8908,13 +8905,13 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B476" t="s">
         <v>9</v>
       </c>
       <c r="C476" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D476">
         <v>12</v>
@@ -8922,13 +8919,13 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B477" t="s">
         <v>9</v>
       </c>
       <c r="C477" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D477">
         <v>11</v>
@@ -8936,13 +8933,13 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B478" t="s">
         <v>18</v>
       </c>
       <c r="C478" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D478">
         <v>14</v>
@@ -8950,13 +8947,13 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B479" t="s">
         <v>18</v>
       </c>
       <c r="C479" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D479">
         <v>14</v>
@@ -8964,13 +8961,13 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B480" t="s">
         <v>18</v>
       </c>
       <c r="C480" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D480">
         <v>13</v>
@@ -8978,13 +8975,13 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B481" t="s">
         <v>18</v>
       </c>
       <c r="C481" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D481">
         <v>18</v>
@@ -8992,13 +8989,13 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B482" t="s">
         <v>18</v>
       </c>
       <c r="C482" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D482">
         <v>12</v>
@@ -9006,13 +9003,13 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B483" t="s">
         <v>18</v>
       </c>
       <c r="C483" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D483">
         <v>19</v>
@@ -9020,13 +9017,13 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B484" t="s">
         <v>18</v>
       </c>
       <c r="C484" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D484">
         <v>15</v>
@@ -9034,13 +9031,13 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B485" t="s">
         <v>18</v>
       </c>
       <c r="C485" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D485">
         <v>20</v>
@@ -9048,13 +9045,13 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B486" t="s">
         <v>18</v>
       </c>
       <c r="C486" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D486">
         <v>11</v>
@@ -9062,13 +9059,13 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B487" t="s">
         <v>24</v>
       </c>
       <c r="C487" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D487">
         <v>15</v>
@@ -9076,13 +9073,13 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B488" t="s">
         <v>24</v>
       </c>
       <c r="C488" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D488">
         <v>18</v>
@@ -9090,13 +9087,13 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B489" t="s">
         <v>24</v>
       </c>
       <c r="C489" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D489">
         <v>17</v>
@@ -9104,13 +9101,13 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B490" t="s">
         <v>24</v>
       </c>
       <c r="C490" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D490">
         <v>16</v>
@@ -9118,13 +9115,13 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B491" t="s">
         <v>24</v>
       </c>
       <c r="C491" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D491">
         <v>18</v>
@@ -9132,13 +9129,13 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B492" t="s">
         <v>24</v>
       </c>
       <c r="C492" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D492">
         <v>14</v>
@@ -9146,13 +9143,13 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B493" t="s">
         <v>24</v>
       </c>
       <c r="C493" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D493">
         <v>11</v>
@@ -9160,13 +9157,13 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B494" t="s">
         <v>5</v>
       </c>
       <c r="C494" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D494">
         <v>12</v>
@@ -9174,13 +9171,13 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B495" t="s">
         <v>5</v>
       </c>
       <c r="C495" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D495">
         <v>15</v>
@@ -9188,13 +9185,13 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B496" t="s">
         <v>5</v>
       </c>
       <c r="C496" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D496">
         <v>11</v>
@@ -9202,13 +9199,13 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B497" t="s">
         <v>9</v>
       </c>
       <c r="C497" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D497">
         <v>13</v>
@@ -9216,13 +9213,13 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B498" t="s">
         <v>9</v>
       </c>
       <c r="C498" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D498">
         <v>15</v>
@@ -9230,13 +9227,13 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B499" t="s">
         <v>9</v>
       </c>
       <c r="C499" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D499">
         <v>13</v>
@@ -9244,13 +9241,13 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B500" t="s">
         <v>9</v>
       </c>
       <c r="C500" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D500">
         <v>14</v>
@@ -9258,13 +9255,13 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B501" t="s">
         <v>9</v>
       </c>
       <c r="C501" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D501">
         <v>13</v>
@@ -9272,13 +9269,13 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B502" t="s">
         <v>9</v>
       </c>
       <c r="C502" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D502">
         <v>12</v>
@@ -9286,13 +9283,13 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B503" t="s">
         <v>9</v>
       </c>
       <c r="C503" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D503">
         <v>15</v>
@@ -9300,13 +9297,13 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B504" t="s">
         <v>18</v>
       </c>
       <c r="C504" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D504">
         <v>14</v>
@@ -9314,13 +9311,13 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B505" t="s">
         <v>18</v>
       </c>
       <c r="C505" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D505">
         <v>15</v>
@@ -9328,13 +9325,13 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B506" t="s">
         <v>18</v>
       </c>
       <c r="C506" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D506">
         <v>14</v>
@@ -9342,13 +9339,13 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B507" t="s">
         <v>18</v>
       </c>
       <c r="C507" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D507">
         <v>12</v>
@@ -9356,13 +9353,13 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B508" t="s">
         <v>18</v>
       </c>
       <c r="C508" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D508">
         <v>11</v>
@@ -9370,13 +9367,13 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B509" t="s">
         <v>18</v>
       </c>
       <c r="C509" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D509">
         <v>16</v>
@@ -9384,13 +9381,13 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B510" t="s">
         <v>18</v>
       </c>
       <c r="C510" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D510">
         <v>16</v>
@@ -9398,13 +9395,13 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B511" t="s">
         <v>18</v>
       </c>
       <c r="C511" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D511">
         <v>13</v>
@@ -9412,13 +9409,13 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B512" t="s">
         <v>24</v>
       </c>
       <c r="C512" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D512">
         <v>16</v>
@@ -9426,13 +9423,13 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B513" t="s">
         <v>24</v>
       </c>
       <c r="C513" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D513">
         <v>16</v>
@@ -9440,13 +9437,13 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B514" t="s">
         <v>24</v>
       </c>
       <c r="C514" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D514">
         <v>17</v>
@@ -9454,13 +9451,13 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B515" t="s">
         <v>24</v>
       </c>
       <c r="C515" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D515">
         <v>17</v>
@@ -9468,13 +9465,13 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B516" t="s">
         <v>24</v>
       </c>
       <c r="C516" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D516">
         <v>15</v>
@@ -9482,13 +9479,13 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B517" t="s">
         <v>24</v>
       </c>
       <c r="C517" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D517">
         <v>15</v>
@@ -9496,13 +9493,13 @@
     </row>
     <row r="518" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B518" t="s">
         <v>24</v>
       </c>
       <c r="C518" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D518">
         <v>14</v>
@@ -9510,13 +9507,13 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B519" t="s">
         <v>5</v>
       </c>
       <c r="C519" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D519">
         <v>13</v>
@@ -9524,13 +9521,13 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B520" t="s">
         <v>5</v>
       </c>
       <c r="C520" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D520">
         <v>13</v>
@@ -9538,13 +9535,13 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B521" t="s">
         <v>9</v>
       </c>
       <c r="C521" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D521">
         <v>14</v>
@@ -9552,13 +9549,13 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B522" t="s">
         <v>9</v>
       </c>
       <c r="C522" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D522">
         <v>12</v>
@@ -9566,13 +9563,13 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B523" t="s">
         <v>9</v>
       </c>
       <c r="C523" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D523">
         <v>11</v>
@@ -9580,13 +9577,13 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B524" t="s">
         <v>9</v>
       </c>
       <c r="C524" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D524">
         <v>13</v>
@@ -9594,13 +9591,13 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B525" t="s">
         <v>9</v>
       </c>
       <c r="C525" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D525">
         <v>14</v>
@@ -9608,13 +9605,13 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B526" t="s">
         <v>9</v>
       </c>
       <c r="C526" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D526">
         <v>13</v>
@@ -9622,13 +9619,13 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B527" t="s">
         <v>9</v>
       </c>
       <c r="C527" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D527">
         <v>13</v>
@@ -9636,13 +9633,13 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B528" t="s">
         <v>9</v>
       </c>
       <c r="C528" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D528">
         <v>14</v>
@@ -9650,13 +9647,13 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B529" t="s">
         <v>9</v>
       </c>
       <c r="C529" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D529">
         <v>10</v>
@@ -9664,13 +9661,13 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B530" t="s">
         <v>18</v>
       </c>
       <c r="C530" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D530">
         <v>11</v>
@@ -9678,13 +9675,13 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B531" t="s">
         <v>18</v>
       </c>
       <c r="C531" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D531">
         <v>15</v>
@@ -9692,13 +9689,13 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B532" t="s">
         <v>18</v>
       </c>
       <c r="C532" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D532">
         <v>13</v>
@@ -9706,13 +9703,13 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B533" t="s">
         <v>18</v>
       </c>
       <c r="C533" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D533">
         <v>13</v>
@@ -9720,13 +9717,13 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B534" t="s">
         <v>18</v>
       </c>
       <c r="C534" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D534">
         <v>12</v>
@@ -9734,13 +9731,13 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B535" t="s">
         <v>18</v>
       </c>
       <c r="C535" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D535">
         <v>14</v>
@@ -9748,13 +9745,13 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B536" t="s">
         <v>18</v>
       </c>
       <c r="C536" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D536">
         <v>15</v>
@@ -9762,13 +9759,13 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B537" t="s">
         <v>18</v>
       </c>
       <c r="C537" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D537">
         <v>12</v>
@@ -9776,13 +9773,13 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B538" t="s">
         <v>18</v>
       </c>
       <c r="C538" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D538">
         <v>14</v>
@@ -9790,13 +9787,13 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B539" t="s">
         <v>18</v>
       </c>
       <c r="C539" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D539">
         <v>15</v>
@@ -9804,13 +9801,13 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B540" t="s">
         <v>18</v>
       </c>
       <c r="C540" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D540">
         <v>11</v>
@@ -9818,13 +9815,13 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B541" t="s">
         <v>24</v>
       </c>
       <c r="C541" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D541">
         <v>12</v>
@@ -9832,13 +9829,13 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B542" t="s">
         <v>24</v>
       </c>
       <c r="C542" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D542">
         <v>13</v>
@@ -9846,13 +9843,13 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B543" t="s">
         <v>24</v>
       </c>
       <c r="C543" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D543">
         <v>13</v>
@@ -9860,13 +9857,13 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B544" t="s">
         <v>24</v>
       </c>
       <c r="C544" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D544">
         <v>14</v>
@@ -9874,13 +9871,13 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B545" t="s">
         <v>24</v>
       </c>
       <c r="C545" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D545">
         <v>15</v>
@@ -9888,13 +9885,13 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B546" t="s">
         <v>24</v>
       </c>
       <c r="C546" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D546">
         <v>10</v>
@@ -9902,13 +9899,13 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B547" t="s">
         <v>5</v>
       </c>
       <c r="C547" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D547">
         <v>14</v>
@@ -9916,13 +9913,13 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B548" t="s">
         <v>5</v>
       </c>
       <c r="C548" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D548">
         <v>17</v>
@@ -9930,13 +9927,13 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B549" t="s">
         <v>5</v>
       </c>
       <c r="C549" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D549">
         <v>13</v>
@@ -9944,13 +9941,13 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B550" t="s">
         <v>9</v>
       </c>
       <c r="C550" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D550">
         <v>15</v>
@@ -9958,13 +9955,13 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B551" t="s">
         <v>9</v>
       </c>
       <c r="C551" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D551">
         <v>16</v>
@@ -9972,13 +9969,13 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B552" t="s">
         <v>9</v>
       </c>
       <c r="C552" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D552">
         <v>15</v>
@@ -9986,13 +9983,13 @@
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B553" t="s">
         <v>9</v>
       </c>
       <c r="C553" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D553">
         <v>14</v>
@@ -10000,13 +9997,13 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B554" t="s">
         <v>9</v>
       </c>
       <c r="C554" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D554">
         <v>16</v>
@@ -10014,13 +10011,13 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B555" t="s">
         <v>9</v>
       </c>
       <c r="C555" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D555">
         <v>15</v>
@@ -10028,13 +10025,13 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B556" t="s">
         <v>9</v>
       </c>
       <c r="C556" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D556">
         <v>15</v>
@@ -10042,13 +10039,13 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B557" t="s">
         <v>9</v>
       </c>
       <c r="C557" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D557">
         <v>16</v>
@@ -10056,13 +10053,13 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B558" t="s">
         <v>9</v>
       </c>
       <c r="C558" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D558">
         <v>14</v>
@@ -10070,13 +10067,13 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B559" t="s">
         <v>9</v>
       </c>
       <c r="C559" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D559">
         <v>13</v>
@@ -10084,13 +10081,13 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B560" t="s">
         <v>9</v>
       </c>
       <c r="C560" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D560">
         <v>13</v>
@@ -10098,13 +10095,13 @@
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B561" t="s">
         <v>18</v>
       </c>
       <c r="C561" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D561">
         <v>17</v>
@@ -10112,13 +10109,13 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B562" t="s">
         <v>18</v>
       </c>
       <c r="C562" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D562">
         <v>15</v>
@@ -10126,13 +10123,13 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B563" t="s">
         <v>18</v>
       </c>
       <c r="C563" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D563">
         <v>18</v>
@@ -10140,13 +10137,13 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B564" t="s">
         <v>18</v>
       </c>
       <c r="C564" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D564">
         <v>15</v>
@@ -10154,13 +10151,13 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B565" t="s">
         <v>18</v>
       </c>
       <c r="C565" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D565">
         <v>16</v>
@@ -10168,13 +10165,13 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B566" t="s">
         <v>18</v>
       </c>
       <c r="C566" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D566">
         <v>15</v>
@@ -10182,13 +10179,13 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B567" t="s">
         <v>18</v>
       </c>
       <c r="C567" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D567">
         <v>15</v>
@@ -10196,13 +10193,13 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B568" t="s">
         <v>18</v>
       </c>
       <c r="C568" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D568">
         <v>17</v>
@@ -10210,13 +10207,13 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B569" t="s">
         <v>18</v>
       </c>
       <c r="C569" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D569">
         <v>14</v>
@@ -10224,13 +10221,13 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B570" t="s">
         <v>24</v>
       </c>
       <c r="C570" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D570">
         <v>16</v>
@@ -10238,13 +10235,13 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B571" t="s">
         <v>24</v>
       </c>
       <c r="C571" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D571">
         <v>21</v>
@@ -10252,13 +10249,13 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B572" t="s">
         <v>24</v>
       </c>
       <c r="C572" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D572">
         <v>18</v>
@@ -10266,13 +10263,13 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B573" t="s">
         <v>24</v>
       </c>
       <c r="C573" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D573">
         <v>18</v>
@@ -10280,13 +10277,13 @@
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B574" t="s">
         <v>24</v>
       </c>
       <c r="C574" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D574">
         <v>19</v>
@@ -10294,13 +10291,13 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B575" t="s">
         <v>24</v>
       </c>
       <c r="C575" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D575">
         <v>14</v>
@@ -10308,832 +10305,20 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B576" t="s">
         <v>24</v>
       </c>
       <c r="C576" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D576">
         <v>14</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A577" t="s">
-        <v>602</v>
-      </c>
-      <c r="B577" t="s">
-        <v>5</v>
-      </c>
-      <c r="C577" t="s">
-        <v>208</v>
-      </c>
-      <c r="D577">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A578" t="s">
-        <v>602</v>
-      </c>
-      <c r="B578" t="s">
-        <v>5</v>
-      </c>
-      <c r="C578" t="s">
-        <v>209</v>
-      </c>
-      <c r="D578">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A579" t="s">
-        <v>602</v>
-      </c>
-      <c r="B579" t="s">
-        <v>5</v>
-      </c>
-      <c r="C579" t="s">
-        <v>210</v>
-      </c>
-      <c r="D579">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A580" t="s">
-        <v>602</v>
-      </c>
-      <c r="B580" t="s">
-        <v>9</v>
-      </c>
-      <c r="C580" t="s">
-        <v>211</v>
-      </c>
-      <c r="D580">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A581" t="s">
-        <v>602</v>
-      </c>
-      <c r="B581" t="s">
-        <v>9</v>
-      </c>
-      <c r="C581" t="s">
-        <v>212</v>
-      </c>
-      <c r="D581">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A582" t="s">
-        <v>602</v>
-      </c>
-      <c r="B582" t="s">
-        <v>9</v>
-      </c>
-      <c r="C582" t="s">
-        <v>213</v>
-      </c>
-      <c r="D582">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A583" t="s">
-        <v>602</v>
-      </c>
-      <c r="B583" t="s">
-        <v>9</v>
-      </c>
-      <c r="C583" t="s">
-        <v>214</v>
-      </c>
-      <c r="D583">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A584" t="s">
-        <v>602</v>
-      </c>
-      <c r="B584" t="s">
-        <v>9</v>
-      </c>
-      <c r="C584" t="s">
-        <v>215</v>
-      </c>
-      <c r="D584">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A585" t="s">
-        <v>602</v>
-      </c>
-      <c r="B585" t="s">
-        <v>9</v>
-      </c>
-      <c r="C585" t="s">
-        <v>216</v>
-      </c>
-      <c r="D585">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A586" t="s">
-        <v>602</v>
-      </c>
-      <c r="B586" t="s">
-        <v>9</v>
-      </c>
-      <c r="C586" t="s">
-        <v>217</v>
-      </c>
-      <c r="D586">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A587" t="s">
-        <v>602</v>
-      </c>
-      <c r="B587" t="s">
-        <v>9</v>
-      </c>
-      <c r="C587" t="s">
-        <v>218</v>
-      </c>
-      <c r="D587">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A588" t="s">
-        <v>602</v>
-      </c>
-      <c r="B588" t="s">
-        <v>18</v>
-      </c>
-      <c r="C588" t="s">
-        <v>219</v>
-      </c>
-      <c r="D588">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A589" t="s">
-        <v>602</v>
-      </c>
-      <c r="B589" t="s">
-        <v>18</v>
-      </c>
-      <c r="C589" t="s">
-        <v>220</v>
-      </c>
-      <c r="D589">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A590" t="s">
-        <v>602</v>
-      </c>
-      <c r="B590" t="s">
-        <v>18</v>
-      </c>
-      <c r="C590" t="s">
-        <v>221</v>
-      </c>
-      <c r="D590">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A591" t="s">
-        <v>602</v>
-      </c>
-      <c r="B591" t="s">
-        <v>18</v>
-      </c>
-      <c r="C591" t="s">
-        <v>222</v>
-      </c>
-      <c r="D591">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A592" t="s">
-        <v>602</v>
-      </c>
-      <c r="B592" t="s">
-        <v>18</v>
-      </c>
-      <c r="C592" t="s">
-        <v>223</v>
-      </c>
-      <c r="D592">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A593" t="s">
-        <v>602</v>
-      </c>
-      <c r="B593" t="s">
-        <v>18</v>
-      </c>
-      <c r="C593" t="s">
-        <v>224</v>
-      </c>
-      <c r="D593">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A594" t="s">
-        <v>602</v>
-      </c>
-      <c r="B594" t="s">
-        <v>18</v>
-      </c>
-      <c r="C594" t="s">
-        <v>225</v>
-      </c>
-      <c r="D594">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A595" t="s">
-        <v>602</v>
-      </c>
-      <c r="B595" t="s">
-        <v>18</v>
-      </c>
-      <c r="C595" t="s">
-        <v>226</v>
-      </c>
-      <c r="D595">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A596" t="s">
-        <v>602</v>
-      </c>
-      <c r="B596" t="s">
-        <v>18</v>
-      </c>
-      <c r="C596" t="s">
-        <v>227</v>
-      </c>
-      <c r="D596">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A597" t="s">
-        <v>602</v>
-      </c>
-      <c r="B597" t="s">
-        <v>18</v>
-      </c>
-      <c r="C597" t="s">
-        <v>228</v>
-      </c>
-      <c r="D597">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A598" t="s">
-        <v>602</v>
-      </c>
-      <c r="B598" t="s">
-        <v>18</v>
-      </c>
-      <c r="C598" t="s">
-        <v>229</v>
-      </c>
-      <c r="D598">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A599" t="s">
-        <v>602</v>
-      </c>
-      <c r="B599" t="s">
-        <v>18</v>
-      </c>
-      <c r="C599" t="s">
-        <v>230</v>
-      </c>
-      <c r="D599">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A600" t="s">
-        <v>602</v>
-      </c>
-      <c r="B600" t="s">
-        <v>18</v>
-      </c>
-      <c r="C600" t="s">
-        <v>231</v>
-      </c>
-      <c r="D600">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A601" t="s">
-        <v>602</v>
-      </c>
-      <c r="B601" t="s">
-        <v>24</v>
-      </c>
-      <c r="C601" t="s">
-        <v>232</v>
-      </c>
-      <c r="D601">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A602" t="s">
-        <v>602</v>
-      </c>
-      <c r="B602" t="s">
-        <v>24</v>
-      </c>
-      <c r="C602" t="s">
-        <v>233</v>
-      </c>
-      <c r="D602">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A603" t="s">
-        <v>602</v>
-      </c>
-      <c r="B603" t="s">
-        <v>24</v>
-      </c>
-      <c r="C603" t="s">
-        <v>234</v>
-      </c>
-      <c r="D603">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A604" t="s">
-        <v>602</v>
-      </c>
-      <c r="B604" t="s">
-        <v>24</v>
-      </c>
-      <c r="C604" t="s">
-        <v>235</v>
-      </c>
-      <c r="D604">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A605" t="s">
-        <v>602</v>
-      </c>
-      <c r="B605" t="s">
-        <v>24</v>
-      </c>
-      <c r="C605" t="s">
-        <v>236</v>
-      </c>
-      <c r="D605">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A606" t="s">
-        <v>601</v>
-      </c>
-      <c r="B606" t="s">
-        <v>5</v>
-      </c>
-      <c r="C606" t="s">
-        <v>237</v>
-      </c>
-      <c r="D606">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A607" t="s">
-        <v>601</v>
-      </c>
-      <c r="B607" t="s">
-        <v>5</v>
-      </c>
-      <c r="C607" t="s">
-        <v>238</v>
-      </c>
-      <c r="D607">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A608" t="s">
-        <v>601</v>
-      </c>
-      <c r="B608" t="s">
-        <v>5</v>
-      </c>
-      <c r="C608" t="s">
-        <v>239</v>
-      </c>
-      <c r="D608">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A609" t="s">
-        <v>601</v>
-      </c>
-      <c r="B609" t="s">
-        <v>9</v>
-      </c>
-      <c r="C609" t="s">
-        <v>240</v>
-      </c>
-      <c r="D609">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A610" t="s">
-        <v>601</v>
-      </c>
-      <c r="B610" t="s">
-        <v>9</v>
-      </c>
-      <c r="C610" t="s">
-        <v>241</v>
-      </c>
-      <c r="D610">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A611" t="s">
-        <v>601</v>
-      </c>
-      <c r="B611" t="s">
-        <v>9</v>
-      </c>
-      <c r="C611" t="s">
-        <v>242</v>
-      </c>
-      <c r="D611">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A612" t="s">
-        <v>601</v>
-      </c>
-      <c r="B612" t="s">
-        <v>9</v>
-      </c>
-      <c r="C612" t="s">
-        <v>243</v>
-      </c>
-      <c r="D612">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A613" t="s">
-        <v>601</v>
-      </c>
-      <c r="B613" t="s">
-        <v>9</v>
-      </c>
-      <c r="C613" t="s">
-        <v>244</v>
-      </c>
-      <c r="D613">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A614" t="s">
-        <v>601</v>
-      </c>
-      <c r="B614" t="s">
-        <v>9</v>
-      </c>
-      <c r="C614" t="s">
-        <v>245</v>
-      </c>
-      <c r="D614">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A615" t="s">
-        <v>601</v>
-      </c>
-      <c r="B615" t="s">
-        <v>9</v>
-      </c>
-      <c r="C615" t="s">
-        <v>246</v>
-      </c>
-      <c r="D615">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A616" t="s">
-        <v>601</v>
-      </c>
-      <c r="B616" t="s">
-        <v>9</v>
-      </c>
-      <c r="C616" t="s">
-        <v>247</v>
-      </c>
-      <c r="D616">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A617" t="s">
-        <v>601</v>
-      </c>
-      <c r="B617" t="s">
-        <v>9</v>
-      </c>
-      <c r="C617" t="s">
-        <v>248</v>
-      </c>
-      <c r="D617">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A618" t="s">
-        <v>601</v>
-      </c>
-      <c r="B618" t="s">
-        <v>9</v>
-      </c>
-      <c r="C618" t="s">
-        <v>249</v>
-      </c>
-      <c r="D618">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A619" t="s">
-        <v>601</v>
-      </c>
-      <c r="B619" t="s">
-        <v>9</v>
-      </c>
-      <c r="C619" t="s">
-        <v>250</v>
-      </c>
-      <c r="D619">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A620" t="s">
-        <v>601</v>
-      </c>
-      <c r="B620" t="s">
-        <v>18</v>
-      </c>
-      <c r="C620" t="s">
-        <v>251</v>
-      </c>
-      <c r="D620">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A621" t="s">
-        <v>601</v>
-      </c>
-      <c r="B621" t="s">
-        <v>18</v>
-      </c>
-      <c r="C621" t="s">
-        <v>252</v>
-      </c>
-      <c r="D621">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A622" t="s">
-        <v>601</v>
-      </c>
-      <c r="B622" t="s">
-        <v>18</v>
-      </c>
-      <c r="C622" t="s">
-        <v>253</v>
-      </c>
-      <c r="D622">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A623" t="s">
-        <v>601</v>
-      </c>
-      <c r="B623" t="s">
-        <v>18</v>
-      </c>
-      <c r="C623" t="s">
-        <v>254</v>
-      </c>
-      <c r="D623">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A624" t="s">
-        <v>601</v>
-      </c>
-      <c r="B624" t="s">
-        <v>18</v>
-      </c>
-      <c r="C624" t="s">
-        <v>255</v>
-      </c>
-      <c r="D624">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A625" t="s">
-        <v>601</v>
-      </c>
-      <c r="B625" t="s">
-        <v>18</v>
-      </c>
-      <c r="C625" t="s">
-        <v>256</v>
-      </c>
-      <c r="D625">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A626" t="s">
-        <v>601</v>
-      </c>
-      <c r="B626" t="s">
-        <v>18</v>
-      </c>
-      <c r="C626" t="s">
-        <v>257</v>
-      </c>
-      <c r="D626">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A627" t="s">
-        <v>601</v>
-      </c>
-      <c r="B627" t="s">
-        <v>18</v>
-      </c>
-      <c r="C627" t="s">
-        <v>258</v>
-      </c>
-      <c r="D627">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A628" t="s">
-        <v>601</v>
-      </c>
-      <c r="B628" t="s">
-        <v>18</v>
-      </c>
-      <c r="C628" t="s">
-        <v>259</v>
-      </c>
-      <c r="D628">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A629" t="s">
-        <v>601</v>
-      </c>
-      <c r="B629" t="s">
-        <v>24</v>
-      </c>
-      <c r="C629" t="s">
-        <v>260</v>
-      </c>
-      <c r="D629">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A630" t="s">
-        <v>601</v>
-      </c>
-      <c r="B630" t="s">
-        <v>24</v>
-      </c>
-      <c r="C630" t="s">
-        <v>261</v>
-      </c>
-      <c r="D630">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A631" t="s">
-        <v>601</v>
-      </c>
-      <c r="B631" t="s">
-        <v>24</v>
-      </c>
-      <c r="C631" t="s">
-        <v>262</v>
-      </c>
-      <c r="D631">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A632" t="s">
-        <v>601</v>
-      </c>
-      <c r="B632" t="s">
-        <v>24</v>
-      </c>
-      <c r="C632" t="s">
-        <v>263</v>
-      </c>
-      <c r="D632">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A633" t="s">
-        <v>601</v>
-      </c>
-      <c r="B633" t="s">
-        <v>24</v>
-      </c>
-      <c r="C633" t="s">
-        <v>264</v>
-      </c>
-      <c r="D633">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A634" t="s">
-        <v>601</v>
-      </c>
-      <c r="B634" t="s">
-        <v>24</v>
-      </c>
-      <c r="C634" t="s">
-        <v>265</v>
-      </c>
-      <c r="D634">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D634" xr:uid="{BAB1F9E9-06F4-4FFD-8ED9-371667988A0B}"/>
+  <autoFilter ref="A1:D576" xr:uid="{BAB1F9E9-06F4-4FFD-8ED9-371667988A0B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/escala25.xlsx
+++ b/escala25.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE8F2B0-64FA-4912-BA53-A69614B56E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEFF910-0FE2-45C2-A524-3A0E572DFF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32535" yWindow="1530" windowWidth="17460" windowHeight="19545" xr2:uid="{203903AA-C59F-46B0-B0DA-5C67DD6FA865}"/>
+    <workbookView xWindow="18210" yWindow="600" windowWidth="17460" windowHeight="19545" xr2:uid="{203903AA-C59F-46B0-B0DA-5C67DD6FA865}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$576</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$577</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="603">
   <si>
     <t>Equipo</t>
   </si>
@@ -787,6 +787,9 @@
   </si>
   <si>
     <t>NAYEF AGUERD</t>
+  </si>
+  <si>
+    <t>JON ARAMBURU</t>
   </si>
   <si>
     <t>JON MARTÍN</t>
@@ -2241,16 +2244,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB1F9E9-06F4-4FFD-8ED9-371667988A0B}">
-  <dimension ref="A1:D576"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="G221" sqref="G221"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E215" sqref="E215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2267,7 +2272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2281,7 +2286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2295,7 +2300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2309,7 +2314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2323,7 +2328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2337,7 +2342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2351,7 +2356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2365,7 +2370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2379,7 +2384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2393,7 +2398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2407,7 +2412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2421,7 +2426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2435,7 +2440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2449,7 +2454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2463,7 +2468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2477,7 +2482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2491,7 +2496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2505,7 +2510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2519,7 +2524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2533,7 +2538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2547,7 +2552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2561,7 +2566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2575,7 +2580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2589,7 +2594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2603,7 +2608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2617,7 +2622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2631,7 +2636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2645,7 +2650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -2659,7 +2664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -2673,7 +2678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -2687,7 +2692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -2701,7 +2706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -2715,7 +2720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -2729,7 +2734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -2743,7 +2748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -2757,7 +2762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -2771,7 +2776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -2785,7 +2790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -2799,7 +2804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -2813,7 +2818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -2827,7 +2832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -2841,7 +2846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -2855,7 +2860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -2869,7 +2874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -2883,7 +2888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -2897,7 +2902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -2911,7 +2916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -2925,7 +2930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -2939,7 +2944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -2953,7 +2958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -2967,7 +2972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -2981,7 +2986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -2995,7 +3000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -3009,7 +3014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>121</v>
       </c>
@@ -3023,7 +3028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>121</v>
       </c>
@@ -3037,7 +3042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>121</v>
       </c>
@@ -3051,7 +3056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>121</v>
       </c>
@@ -3065,7 +3070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>121</v>
       </c>
@@ -3079,7 +3084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>121</v>
       </c>
@@ -3093,7 +3098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -3107,7 +3112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>121</v>
       </c>
@@ -3121,7 +3126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>121</v>
       </c>
@@ -3135,7 +3140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>121</v>
       </c>
@@ -3149,7 +3154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -3163,7 +3168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>121</v>
       </c>
@@ -3177,7 +3182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>121</v>
       </c>
@@ -3191,7 +3196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>121</v>
       </c>
@@ -3205,7 +3210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>121</v>
       </c>
@@ -3219,7 +3224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>121</v>
       </c>
@@ -3233,7 +3238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>121</v>
       </c>
@@ -3247,7 +3252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>121</v>
       </c>
@@ -3261,7 +3266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -3275,7 +3280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>121</v>
       </c>
@@ -3289,7 +3294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>121</v>
       </c>
@@ -3303,7 +3308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>121</v>
       </c>
@@ -3317,7 +3322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>121</v>
       </c>
@@ -3331,7 +3336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>121</v>
       </c>
@@ -3345,7 +3350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -3359,7 +3364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>121</v>
       </c>
@@ -3373,7 +3378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>121</v>
       </c>
@@ -3387,7 +3392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>121</v>
       </c>
@@ -3401,7 +3406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>150</v>
       </c>
@@ -3415,7 +3420,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>150</v>
       </c>
@@ -3429,7 +3434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>150</v>
       </c>
@@ -3443,7 +3448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>150</v>
       </c>
@@ -3457,7 +3462,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>150</v>
       </c>
@@ -3471,7 +3476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>150</v>
       </c>
@@ -3485,7 +3490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>150</v>
       </c>
@@ -3499,7 +3504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>150</v>
       </c>
@@ -3513,7 +3518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>150</v>
       </c>
@@ -3527,7 +3532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>150</v>
       </c>
@@ -3541,7 +3546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>150</v>
       </c>
@@ -3555,7 +3560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>150</v>
       </c>
@@ -3569,7 +3574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>150</v>
       </c>
@@ -3583,7 +3588,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>150</v>
       </c>
@@ -3597,7 +3602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>150</v>
       </c>
@@ -3611,7 +3616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>150</v>
       </c>
@@ -3625,7 +3630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>150</v>
       </c>
@@ -3639,7 +3644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>150</v>
       </c>
@@ -3653,7 +3658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>150</v>
       </c>
@@ -3667,7 +3672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>150</v>
       </c>
@@ -3681,7 +3686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>150</v>
       </c>
@@ -3695,7 +3700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>150</v>
       </c>
@@ -3709,7 +3714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>150</v>
       </c>
@@ -3723,7 +3728,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>150</v>
       </c>
@@ -3737,7 +3742,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>150</v>
       </c>
@@ -3751,7 +3756,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>150</v>
       </c>
@@ -3765,9 +3770,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
@@ -3779,9 +3784,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
@@ -3793,9 +3798,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -3807,9 +3812,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -3821,9 +3826,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B113" t="s">
         <v>9</v>
@@ -3835,9 +3840,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B114" t="s">
         <v>9</v>
@@ -3849,9 +3854,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B115" t="s">
         <v>9</v>
@@ -3863,9 +3868,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B116" t="s">
         <v>9</v>
@@ -3877,9 +3882,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B117" t="s">
         <v>9</v>
@@ -3891,9 +3896,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B118" t="s">
         <v>9</v>
@@ -3905,9 +3910,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B119" t="s">
         <v>9</v>
@@ -3919,9 +3924,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B120" t="s">
         <v>9</v>
@@ -3933,9 +3938,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B121" t="s">
         <v>9</v>
@@ -3947,9 +3952,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B122" t="s">
         <v>9</v>
@@ -3961,9 +3966,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B123" t="s">
         <v>18</v>
@@ -3975,9 +3980,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B124" t="s">
         <v>18</v>
@@ -3989,9 +3994,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B125" t="s">
         <v>18</v>
@@ -4003,9 +4008,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B126" t="s">
         <v>18</v>
@@ -4017,9 +4022,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B127" t="s">
         <v>18</v>
@@ -4031,9 +4036,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B128" t="s">
         <v>18</v>
@@ -4045,9 +4050,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B129" t="s">
         <v>18</v>
@@ -4059,9 +4064,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B130" t="s">
         <v>24</v>
@@ -4073,9 +4078,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B131" t="s">
         <v>24</v>
@@ -4087,9 +4092,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B132" t="s">
         <v>24</v>
@@ -4101,9 +4106,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B133" t="s">
         <v>24</v>
@@ -4115,9 +4120,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B134" t="s">
         <v>24</v>
@@ -4129,9 +4134,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B135" t="s">
         <v>24</v>
@@ -4143,9 +4148,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B136" t="s">
         <v>24</v>
@@ -4157,9 +4162,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B137" t="s">
         <v>24</v>
@@ -4171,7 +4176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>177</v>
       </c>
@@ -4185,7 +4190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>177</v>
       </c>
@@ -4199,7 +4204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>177</v>
       </c>
@@ -4213,7 +4218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>177</v>
       </c>
@@ -4227,7 +4232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>177</v>
       </c>
@@ -4241,7 +4246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>177</v>
       </c>
@@ -4255,7 +4260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>177</v>
       </c>
@@ -4269,7 +4274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>177</v>
       </c>
@@ -4283,7 +4288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>177</v>
       </c>
@@ -4297,7 +4302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>177</v>
       </c>
@@ -4311,7 +4316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>177</v>
       </c>
@@ -4325,7 +4330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>177</v>
       </c>
@@ -4339,7 +4344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>177</v>
       </c>
@@ -4353,7 +4358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>177</v>
       </c>
@@ -4367,7 +4372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>177</v>
       </c>
@@ -4381,7 +4386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>177</v>
       </c>
@@ -4395,7 +4400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>177</v>
       </c>
@@ -4409,7 +4414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>177</v>
       </c>
@@ -4423,7 +4428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>177</v>
       </c>
@@ -4437,7 +4442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>177</v>
       </c>
@@ -4451,7 +4456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>177</v>
       </c>
@@ -4465,7 +4470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>177</v>
       </c>
@@ -4479,7 +4484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>177</v>
       </c>
@@ -4493,7 +4498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>177</v>
       </c>
@@ -4507,7 +4512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>177</v>
       </c>
@@ -4521,7 +4526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -4535,7 +4540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>177</v>
       </c>
@@ -4549,7 +4554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>177</v>
       </c>
@@ -4563,7 +4568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>177</v>
       </c>
@@ -4577,7 +4582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>177</v>
       </c>
@@ -4591,9 +4596,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
@@ -4605,9 +4610,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
@@ -4619,9 +4624,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -4633,9 +4638,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B171" t="s">
         <v>9</v>
@@ -4647,9 +4652,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B172" t="s">
         <v>9</v>
@@ -4661,9 +4666,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B173" t="s">
         <v>9</v>
@@ -4675,9 +4680,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B174" t="s">
         <v>9</v>
@@ -4689,9 +4694,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B175" t="s">
         <v>9</v>
@@ -4703,9 +4708,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B176" t="s">
         <v>9</v>
@@ -4717,9 +4722,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B177" t="s">
         <v>9</v>
@@ -4731,9 +4736,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B178" t="s">
         <v>9</v>
@@ -4745,9 +4750,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B179" t="s">
         <v>18</v>
@@ -4759,9 +4764,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B180" t="s">
         <v>18</v>
@@ -4773,9 +4778,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B181" t="s">
         <v>18</v>
@@ -4787,9 +4792,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B182" t="s">
         <v>18</v>
@@ -4801,9 +4806,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B183" t="s">
         <v>18</v>
@@ -4815,9 +4820,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B184" t="s">
         <v>18</v>
@@ -4829,9 +4834,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B185" t="s">
         <v>18</v>
@@ -4843,9 +4848,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B186" t="s">
         <v>18</v>
@@ -4857,9 +4862,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B187" t="s">
         <v>18</v>
@@ -4871,9 +4876,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B188" t="s">
         <v>18</v>
@@ -4885,9 +4890,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B189" t="s">
         <v>18</v>
@@ -4899,9 +4904,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B190" t="s">
         <v>18</v>
@@ -4913,9 +4918,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B191" t="s">
         <v>18</v>
@@ -4927,9 +4932,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B192" t="s">
         <v>24</v>
@@ -4941,9 +4946,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B193" t="s">
         <v>24</v>
@@ -4955,9 +4960,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B194" t="s">
         <v>24</v>
@@ -4969,9 +4974,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B195" t="s">
         <v>24</v>
@@ -4983,9 +4988,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B196" t="s">
         <v>24</v>
@@ -4999,7 +5004,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -5013,7 +5018,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -5027,7 +5032,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -5041,7 +5046,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B200" t="s">
         <v>9</v>
@@ -5055,7 +5060,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B201" t="s">
         <v>9</v>
@@ -5069,7 +5074,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B202" t="s">
         <v>9</v>
@@ -5083,7 +5088,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B203" t="s">
         <v>9</v>
@@ -5097,7 +5102,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B204" t="s">
         <v>9</v>
@@ -5111,7 +5116,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B205" t="s">
         <v>9</v>
@@ -5125,7 +5130,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B206" t="s">
         <v>9</v>
@@ -5139,7 +5144,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B207" t="s">
         <v>9</v>
@@ -5153,7 +5158,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B208" t="s">
         <v>9</v>
@@ -5167,7 +5172,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B209" t="s">
         <v>9</v>
@@ -5176,26 +5181,26 @@
         <v>249</v>
       </c>
       <c r="D209">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B210" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
         <v>250</v>
       </c>
       <c r="D210">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B211" t="s">
         <v>18</v>
@@ -5204,12 +5209,12 @@
         <v>251</v>
       </c>
       <c r="D211">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B212" t="s">
         <v>18</v>
@@ -5218,12 +5223,12 @@
         <v>252</v>
       </c>
       <c r="D212">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B213" t="s">
         <v>18</v>
@@ -5232,12 +5237,12 @@
         <v>253</v>
       </c>
       <c r="D213">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B214" t="s">
         <v>18</v>
@@ -5246,12 +5251,12 @@
         <v>254</v>
       </c>
       <c r="D214">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B215" t="s">
         <v>18</v>
@@ -5260,12 +5265,12 @@
         <v>255</v>
       </c>
       <c r="D215">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B216" t="s">
         <v>18</v>
@@ -5274,12 +5279,12 @@
         <v>256</v>
       </c>
       <c r="D216">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B217" t="s">
         <v>18</v>
@@ -5288,12 +5293,12 @@
         <v>257</v>
       </c>
       <c r="D217">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B218" t="s">
         <v>18</v>
@@ -5302,26 +5307,26 @@
         <v>258</v>
       </c>
       <c r="D218">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B219" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C219" t="s">
         <v>259</v>
       </c>
       <c r="D219">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B220" t="s">
         <v>24</v>
@@ -5335,7 +5340,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B221" t="s">
         <v>24</v>
@@ -5344,12 +5349,12 @@
         <v>261</v>
       </c>
       <c r="D221">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B222" t="s">
         <v>24</v>
@@ -5358,12 +5363,12 @@
         <v>262</v>
       </c>
       <c r="D222">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B223" t="s">
         <v>24</v>
@@ -5372,12 +5377,12 @@
         <v>263</v>
       </c>
       <c r="D223">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B224" t="s">
         <v>24</v>
@@ -5386,432 +5391,432 @@
         <v>264</v>
       </c>
       <c r="D224">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>601</v>
+      </c>
+      <c r="B225" t="s">
+        <v>24</v>
+      </c>
+      <c r="C225" t="s">
         <v>265</v>
       </c>
-      <c r="B225" t="s">
-        <v>5</v>
-      </c>
-      <c r="C225" t="s">
-        <v>65</v>
-      </c>
       <c r="D225">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D226">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D227">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D228">
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B229" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>266</v>
+      </c>
+      <c r="B230" t="s">
+        <v>9</v>
+      </c>
+      <c r="C230" t="s">
         <v>69</v>
       </c>
-      <c r="D229">
+      <c r="D230">
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>265</v>
-      </c>
-      <c r="B230" t="s">
-        <v>9</v>
-      </c>
-      <c r="C230" t="s">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>266</v>
+      </c>
+      <c r="B231" t="s">
+        <v>9</v>
+      </c>
+      <c r="C231" t="s">
         <v>70</v>
-      </c>
-      <c r="D230">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>265</v>
-      </c>
-      <c r="B231" t="s">
-        <v>9</v>
-      </c>
-      <c r="C231" t="s">
-        <v>71</v>
       </c>
       <c r="D231">
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B232" t="s">
         <v>9</v>
       </c>
       <c r="C232" t="s">
+        <v>71</v>
+      </c>
+      <c r="D232">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>266</v>
+      </c>
+      <c r="B233" t="s">
+        <v>9</v>
+      </c>
+      <c r="C233" t="s">
         <v>72</v>
       </c>
-      <c r="D232">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>265</v>
-      </c>
-      <c r="B233" t="s">
-        <v>9</v>
-      </c>
-      <c r="C233" t="s">
+      <c r="D233">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>266</v>
+      </c>
+      <c r="B234" t="s">
+        <v>9</v>
+      </c>
+      <c r="C234" t="s">
         <v>73</v>
       </c>
-      <c r="D233">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>265</v>
-      </c>
-      <c r="B234" t="s">
-        <v>9</v>
-      </c>
-      <c r="C234" t="s">
+      <c r="D234">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>266</v>
+      </c>
+      <c r="B235" t="s">
+        <v>9</v>
+      </c>
+      <c r="C235" t="s">
         <v>74</v>
       </c>
-      <c r="D234">
+      <c r="D235">
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>265</v>
-      </c>
-      <c r="B235" t="s">
-        <v>9</v>
-      </c>
-      <c r="C235" t="s">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>266</v>
+      </c>
+      <c r="B236" t="s">
+        <v>9</v>
+      </c>
+      <c r="C236" t="s">
         <v>75</v>
       </c>
-      <c r="D235">
+      <c r="D236">
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>265</v>
-      </c>
-      <c r="B236" t="s">
-        <v>9</v>
-      </c>
-      <c r="C236" t="s">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>266</v>
+      </c>
+      <c r="B237" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237" t="s">
         <v>76</v>
       </c>
-      <c r="D236">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>265</v>
-      </c>
-      <c r="B237" t="s">
-        <v>9</v>
-      </c>
-      <c r="C237" t="s">
+      <c r="D237">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>266</v>
+      </c>
+      <c r="B238" t="s">
+        <v>9</v>
+      </c>
+      <c r="C238" t="s">
         <v>77</v>
       </c>
-      <c r="D237">
+      <c r="D238">
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>265</v>
-      </c>
-      <c r="B238" t="s">
-        <v>9</v>
-      </c>
-      <c r="C238" t="s">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>266</v>
+      </c>
+      <c r="B239" t="s">
+        <v>9</v>
+      </c>
+      <c r="C239" t="s">
         <v>78</v>
       </c>
-      <c r="D238">
+      <c r="D239">
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>265</v>
-      </c>
-      <c r="B239" t="s">
-        <v>18</v>
-      </c>
-      <c r="C239" t="s">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>266</v>
+      </c>
+      <c r="B240" t="s">
+        <v>18</v>
+      </c>
+      <c r="C240" t="s">
         <v>79</v>
-      </c>
-      <c r="D239">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>265</v>
-      </c>
-      <c r="B240" t="s">
-        <v>18</v>
-      </c>
-      <c r="C240" t="s">
-        <v>80</v>
       </c>
       <c r="D240">
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B241" t="s">
         <v>18</v>
       </c>
       <c r="C241" t="s">
+        <v>80</v>
+      </c>
+      <c r="D241">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>266</v>
+      </c>
+      <c r="B242" t="s">
+        <v>18</v>
+      </c>
+      <c r="C242" t="s">
         <v>81</v>
       </c>
-      <c r="D241">
+      <c r="D242">
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>265</v>
-      </c>
-      <c r="B242" t="s">
-        <v>18</v>
-      </c>
-      <c r="C242" t="s">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>266</v>
+      </c>
+      <c r="B243" t="s">
+        <v>18</v>
+      </c>
+      <c r="C243" t="s">
         <v>82</v>
       </c>
-      <c r="D242">
+      <c r="D243">
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>265</v>
-      </c>
-      <c r="B243" t="s">
-        <v>18</v>
-      </c>
-      <c r="C243" t="s">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>266</v>
+      </c>
+      <c r="B244" t="s">
+        <v>18</v>
+      </c>
+      <c r="C244" t="s">
         <v>83</v>
       </c>
-      <c r="D243">
+      <c r="D244">
         <v>19</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>265</v>
-      </c>
-      <c r="B244" t="s">
-        <v>18</v>
-      </c>
-      <c r="C244" t="s">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>266</v>
+      </c>
+      <c r="B245" t="s">
+        <v>18</v>
+      </c>
+      <c r="C245" t="s">
         <v>84</v>
       </c>
-      <c r="D244">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>265</v>
-      </c>
-      <c r="B245" t="s">
-        <v>18</v>
-      </c>
-      <c r="C245" t="s">
+      <c r="D245">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>266</v>
+      </c>
+      <c r="B246" t="s">
+        <v>18</v>
+      </c>
+      <c r="C246" t="s">
         <v>85</v>
       </c>
-      <c r="D245">
+      <c r="D246">
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>265</v>
-      </c>
-      <c r="B246" t="s">
-        <v>18</v>
-      </c>
-      <c r="C246" t="s">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>266</v>
+      </c>
+      <c r="B247" t="s">
+        <v>18</v>
+      </c>
+      <c r="C247" t="s">
         <v>86</v>
       </c>
-      <c r="D246">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>265</v>
-      </c>
-      <c r="B247" t="s">
-        <v>18</v>
-      </c>
-      <c r="C247" t="s">
+      <c r="D247">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>266</v>
+      </c>
+      <c r="B248" t="s">
+        <v>18</v>
+      </c>
+      <c r="C248" t="s">
         <v>87</v>
       </c>
-      <c r="D247">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>265</v>
-      </c>
-      <c r="B248" t="s">
-        <v>18</v>
-      </c>
-      <c r="C248" t="s">
+      <c r="D248">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>266</v>
+      </c>
+      <c r="B249" t="s">
+        <v>18</v>
+      </c>
+      <c r="C249" t="s">
         <v>88</v>
       </c>
-      <c r="D248">
+      <c r="D249">
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>265</v>
-      </c>
-      <c r="B249" t="s">
-        <v>24</v>
-      </c>
-      <c r="C249" t="s">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>266</v>
+      </c>
+      <c r="B250" t="s">
+        <v>24</v>
+      </c>
+      <c r="C250" t="s">
         <v>89</v>
       </c>
-      <c r="D249">
+      <c r="D250">
         <v>32</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>265</v>
-      </c>
-      <c r="B250" t="s">
-        <v>24</v>
-      </c>
-      <c r="C250" t="s">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>266</v>
+      </c>
+      <c r="B251" t="s">
+        <v>24</v>
+      </c>
+      <c r="C251" t="s">
         <v>90</v>
       </c>
-      <c r="D250">
+      <c r="D251">
         <v>22</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>265</v>
-      </c>
-      <c r="B251" t="s">
-        <v>24</v>
-      </c>
-      <c r="C251" t="s">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>266</v>
+      </c>
+      <c r="B252" t="s">
+        <v>24</v>
+      </c>
+      <c r="C252" t="s">
         <v>91</v>
       </c>
-      <c r="D251">
+      <c r="D252">
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>265</v>
-      </c>
-      <c r="B252" t="s">
-        <v>24</v>
-      </c>
-      <c r="C252" t="s">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>266</v>
+      </c>
+      <c r="B253" t="s">
+        <v>24</v>
+      </c>
+      <c r="C253" t="s">
         <v>92</v>
       </c>
-      <c r="D252">
+      <c r="D253">
         <v>28</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>265</v>
-      </c>
-      <c r="B253" t="s">
-        <v>24</v>
-      </c>
-      <c r="C253" t="s">
-        <v>93</v>
-      </c>
-      <c r="D253">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>266</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C254" t="s">
+        <v>93</v>
+      </c>
+      <c r="D254">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>267</v>
-      </c>
-      <c r="D254">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>266</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -5820,12 +5825,12 @@
         <v>268</v>
       </c>
       <c r="D255">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
@@ -5834,12 +5839,12 @@
         <v>269</v>
       </c>
       <c r="D256">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
@@ -5848,12 +5853,12 @@
         <v>270</v>
       </c>
       <c r="D257">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
@@ -5862,26 +5867,26 @@
         <v>271</v>
       </c>
       <c r="D258">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B259" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C259" t="s">
         <v>272</v>
       </c>
       <c r="D259">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B260" t="s">
         <v>9</v>
@@ -5890,12 +5895,12 @@
         <v>273</v>
       </c>
       <c r="D260">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B261" t="s">
         <v>9</v>
@@ -5904,12 +5909,12 @@
         <v>274</v>
       </c>
       <c r="D261">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B262" t="s">
         <v>9</v>
@@ -5918,12 +5923,12 @@
         <v>275</v>
       </c>
       <c r="D262">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B263" t="s">
         <v>9</v>
@@ -5932,12 +5937,12 @@
         <v>276</v>
       </c>
       <c r="D263">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B264" t="s">
         <v>9</v>
@@ -5946,12 +5951,12 @@
         <v>277</v>
       </c>
       <c r="D264">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B265" t="s">
         <v>9</v>
@@ -5960,12 +5965,12 @@
         <v>278</v>
       </c>
       <c r="D265">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B266" t="s">
         <v>9</v>
@@ -5974,12 +5979,12 @@
         <v>279</v>
       </c>
       <c r="D266">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B267" t="s">
         <v>9</v>
@@ -5991,12 +5996,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C268" t="s">
         <v>281</v>
@@ -6005,9 +6010,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B269" t="s">
         <v>18</v>
@@ -6016,12 +6021,12 @@
         <v>282</v>
       </c>
       <c r="D269">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B270" t="s">
         <v>18</v>
@@ -6030,12 +6035,12 @@
         <v>283</v>
       </c>
       <c r="D270">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B271" t="s">
         <v>18</v>
@@ -6044,12 +6049,12 @@
         <v>284</v>
       </c>
       <c r="D271">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B272" t="s">
         <v>18</v>
@@ -6058,12 +6063,12 @@
         <v>285</v>
       </c>
       <c r="D272">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B273" t="s">
         <v>18</v>
@@ -6075,9 +6080,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B274" t="s">
         <v>18</v>
@@ -6086,12 +6091,12 @@
         <v>287</v>
       </c>
       <c r="D274">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B275" t="s">
         <v>18</v>
@@ -6100,12 +6105,12 @@
         <v>288</v>
       </c>
       <c r="D275">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B276" t="s">
         <v>18</v>
@@ -6114,26 +6119,26 @@
         <v>289</v>
       </c>
       <c r="D276">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B277" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C277" t="s">
         <v>290</v>
       </c>
       <c r="D277">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B278" t="s">
         <v>24</v>
@@ -6145,9 +6150,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B279" t="s">
         <v>24</v>
@@ -6156,12 +6161,12 @@
         <v>292</v>
       </c>
       <c r="D279">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B280" t="s">
         <v>24</v>
@@ -6170,12 +6175,12 @@
         <v>293</v>
       </c>
       <c r="D280">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B281" t="s">
         <v>24</v>
@@ -6187,9 +6192,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B282" t="s">
         <v>24</v>
@@ -6198,12 +6203,12 @@
         <v>295</v>
       </c>
       <c r="D282">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B283" t="s">
         <v>24</v>
@@ -6215,23 +6220,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>267</v>
+      </c>
+      <c r="B284" t="s">
+        <v>24</v>
+      </c>
+      <c r="C284" t="s">
         <v>297</v>
-      </c>
-      <c r="B284" t="s">
-        <v>5</v>
-      </c>
-      <c r="C284" t="s">
-        <v>298</v>
       </c>
       <c r="D284">
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B285" t="s">
         <v>5</v>
@@ -6240,12 +6245,12 @@
         <v>299</v>
       </c>
       <c r="D285">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B286" t="s">
         <v>5</v>
@@ -6254,15 +6259,15 @@
         <v>300</v>
       </c>
       <c r="D286">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B287" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C287" t="s">
         <v>301</v>
@@ -6271,9 +6276,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B288" t="s">
         <v>9</v>
@@ -6282,12 +6287,12 @@
         <v>302</v>
       </c>
       <c r="D288">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B289" t="s">
         <v>9</v>
@@ -6296,12 +6301,12 @@
         <v>303</v>
       </c>
       <c r="D289">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B290" t="s">
         <v>9</v>
@@ -6310,12 +6315,12 @@
         <v>304</v>
       </c>
       <c r="D290">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B291" t="s">
         <v>9</v>
@@ -6324,12 +6329,12 @@
         <v>305</v>
       </c>
       <c r="D291">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B292" t="s">
         <v>9</v>
@@ -6338,12 +6343,12 @@
         <v>306</v>
       </c>
       <c r="D292">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B293" t="s">
         <v>9</v>
@@ -6355,9 +6360,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B294" t="s">
         <v>9</v>
@@ -6369,9 +6374,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B295" t="s">
         <v>9</v>
@@ -6380,12 +6385,12 @@
         <v>309</v>
       </c>
       <c r="D295">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B296" t="s">
         <v>9</v>
@@ -6394,26 +6399,26 @@
         <v>310</v>
       </c>
       <c r="D296">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B297" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C297" t="s">
         <v>311</v>
       </c>
       <c r="D297">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B298" t="s">
         <v>18</v>
@@ -6425,9 +6430,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B299" t="s">
         <v>18</v>
@@ -6436,12 +6441,12 @@
         <v>313</v>
       </c>
       <c r="D299">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B300" t="s">
         <v>18</v>
@@ -6450,12 +6455,12 @@
         <v>314</v>
       </c>
       <c r="D300">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B301" t="s">
         <v>18</v>
@@ -6464,12 +6469,12 @@
         <v>315</v>
       </c>
       <c r="D301">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B302" t="s">
         <v>18</v>
@@ -6478,12 +6483,12 @@
         <v>316</v>
       </c>
       <c r="D302">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B303" t="s">
         <v>18</v>
@@ -6495,9 +6500,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B304" t="s">
         <v>18</v>
@@ -6506,12 +6511,12 @@
         <v>318</v>
       </c>
       <c r="D304">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B305" t="s">
         <v>18</v>
@@ -6520,26 +6525,26 @@
         <v>319</v>
       </c>
       <c r="D305">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B306" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C306" t="s">
         <v>320</v>
       </c>
       <c r="D306">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B307" t="s">
         <v>24</v>
@@ -6548,12 +6553,12 @@
         <v>321</v>
       </c>
       <c r="D307">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B308" t="s">
         <v>24</v>
@@ -6562,12 +6567,12 @@
         <v>322</v>
       </c>
       <c r="D308">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B309" t="s">
         <v>24</v>
@@ -6576,12 +6581,12 @@
         <v>323</v>
       </c>
       <c r="D309">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B310" t="s">
         <v>24</v>
@@ -6590,12 +6595,12 @@
         <v>324</v>
       </c>
       <c r="D310">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B311" t="s">
         <v>24</v>
@@ -6604,12 +6609,12 @@
         <v>325</v>
       </c>
       <c r="D311">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B312" t="s">
         <v>24</v>
@@ -6618,26 +6623,26 @@
         <v>326</v>
       </c>
       <c r="D312">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>298</v>
+      </c>
+      <c r="B313" t="s">
+        <v>24</v>
+      </c>
+      <c r="C313" t="s">
         <v>327</v>
       </c>
-      <c r="B313" t="s">
-        <v>5</v>
-      </c>
-      <c r="C313" t="s">
+      <c r="D313">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
         <v>328</v>
-      </c>
-      <c r="D313">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>327</v>
       </c>
       <c r="B314" t="s">
         <v>5</v>
@@ -6646,12 +6651,12 @@
         <v>329</v>
       </c>
       <c r="D314">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B315" t="s">
         <v>5</v>
@@ -6660,12 +6665,12 @@
         <v>330</v>
       </c>
       <c r="D315">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B316" t="s">
         <v>5</v>
@@ -6674,26 +6679,26 @@
         <v>331</v>
       </c>
       <c r="D316">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B317" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C317" t="s">
         <v>332</v>
       </c>
       <c r="D317">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B318" t="s">
         <v>9</v>
@@ -6702,12 +6707,12 @@
         <v>333</v>
       </c>
       <c r="D318">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B319" t="s">
         <v>9</v>
@@ -6716,12 +6721,12 @@
         <v>334</v>
       </c>
       <c r="D319">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B320" t="s">
         <v>9</v>
@@ -6730,12 +6735,12 @@
         <v>335</v>
       </c>
       <c r="D320">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B321" t="s">
         <v>9</v>
@@ -6744,12 +6749,12 @@
         <v>336</v>
       </c>
       <c r="D321">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B322" t="s">
         <v>9</v>
@@ -6761,9 +6766,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B323" t="s">
         <v>9</v>
@@ -6772,12 +6777,12 @@
         <v>338</v>
       </c>
       <c r="D323">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B324" t="s">
         <v>9</v>
@@ -6786,12 +6791,12 @@
         <v>339</v>
       </c>
       <c r="D324">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B325" t="s">
         <v>9</v>
@@ -6800,26 +6805,26 @@
         <v>340</v>
       </c>
       <c r="D325">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C326" t="s">
         <v>341</v>
       </c>
       <c r="D326">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B327" t="s">
         <v>18</v>
@@ -6828,12 +6833,12 @@
         <v>342</v>
       </c>
       <c r="D327">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B328" t="s">
         <v>18</v>
@@ -6842,12 +6847,12 @@
         <v>343</v>
       </c>
       <c r="D328">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B329" t="s">
         <v>18</v>
@@ -6856,12 +6861,12 @@
         <v>344</v>
       </c>
       <c r="D329">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B330" t="s">
         <v>18</v>
@@ -6870,12 +6875,12 @@
         <v>345</v>
       </c>
       <c r="D330">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B331" t="s">
         <v>18</v>
@@ -6884,12 +6889,12 @@
         <v>346</v>
       </c>
       <c r="D331">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B332" t="s">
         <v>18</v>
@@ -6898,12 +6903,12 @@
         <v>347</v>
       </c>
       <c r="D332">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B333" t="s">
         <v>18</v>
@@ -6912,12 +6917,12 @@
         <v>348</v>
       </c>
       <c r="D333">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B334" t="s">
         <v>18</v>
@@ -6926,12 +6931,12 @@
         <v>349</v>
       </c>
       <c r="D334">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B335" t="s">
         <v>18</v>
@@ -6940,12 +6945,12 @@
         <v>350</v>
       </c>
       <c r="D335">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B336" t="s">
         <v>18</v>
@@ -6957,9 +6962,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B337" t="s">
         <v>18</v>
@@ -6968,26 +6973,26 @@
         <v>352</v>
       </c>
       <c r="D337">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B338" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C338" t="s">
         <v>353</v>
       </c>
       <c r="D338">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B339" t="s">
         <v>24</v>
@@ -6999,9 +7004,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B340" t="s">
         <v>24</v>
@@ -7010,12 +7015,12 @@
         <v>355</v>
       </c>
       <c r="D340">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B341" t="s">
         <v>24</v>
@@ -7024,12 +7029,12 @@
         <v>356</v>
       </c>
       <c r="D341">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B342" t="s">
         <v>24</v>
@@ -7038,12 +7043,12 @@
         <v>357</v>
       </c>
       <c r="D342">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B343" t="s">
         <v>24</v>
@@ -7052,26 +7057,26 @@
         <v>358</v>
       </c>
       <c r="D343">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>328</v>
+      </c>
+      <c r="B344" t="s">
+        <v>24</v>
+      </c>
+      <c r="C344" t="s">
+        <v>359</v>
+      </c>
+      <c r="D344">
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>359</v>
-      </c>
-      <c r="B344" t="s">
-        <v>5</v>
-      </c>
-      <c r="C344" t="s">
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
         <v>360</v>
-      </c>
-      <c r="D344">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>359</v>
       </c>
       <c r="B345" t="s">
         <v>5</v>
@@ -7080,12 +7085,12 @@
         <v>361</v>
       </c>
       <c r="D345">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B346" t="s">
         <v>5</v>
@@ -7094,12 +7099,12 @@
         <v>362</v>
       </c>
       <c r="D346">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B347" t="s">
         <v>5</v>
@@ -7108,15 +7113,15 @@
         <v>363</v>
       </c>
       <c r="D347">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B348" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C348" t="s">
         <v>364</v>
@@ -7125,9 +7130,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B349" t="s">
         <v>9</v>
@@ -7136,12 +7141,12 @@
         <v>365</v>
       </c>
       <c r="D349">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B350" t="s">
         <v>9</v>
@@ -7150,12 +7155,12 @@
         <v>366</v>
       </c>
       <c r="D350">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B351" t="s">
         <v>9</v>
@@ -7164,12 +7169,12 @@
         <v>367</v>
       </c>
       <c r="D351">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B352" t="s">
         <v>9</v>
@@ -7178,12 +7183,12 @@
         <v>368</v>
       </c>
       <c r="D352">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B353" t="s">
         <v>9</v>
@@ -7192,12 +7197,12 @@
         <v>369</v>
       </c>
       <c r="D353">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B354" t="s">
         <v>9</v>
@@ -7209,9 +7214,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B355" t="s">
         <v>9</v>
@@ -7220,12 +7225,12 @@
         <v>371</v>
       </c>
       <c r="D355">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B356" t="s">
         <v>9</v>
@@ -7234,12 +7239,12 @@
         <v>372</v>
       </c>
       <c r="D356">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B357" t="s">
         <v>9</v>
@@ -7248,12 +7253,12 @@
         <v>373</v>
       </c>
       <c r="D357">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B358" t="s">
         <v>9</v>
@@ -7262,26 +7267,26 @@
         <v>374</v>
       </c>
       <c r="D358">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B359" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C359" t="s">
         <v>375</v>
       </c>
       <c r="D359">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B360" t="s">
         <v>18</v>
@@ -7290,12 +7295,12 @@
         <v>376</v>
       </c>
       <c r="D360">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B361" t="s">
         <v>18</v>
@@ -7304,12 +7309,12 @@
         <v>377</v>
       </c>
       <c r="D361">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B362" t="s">
         <v>18</v>
@@ -7318,12 +7323,12 @@
         <v>378</v>
       </c>
       <c r="D362">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B363" t="s">
         <v>18</v>
@@ -7332,12 +7337,12 @@
         <v>379</v>
       </c>
       <c r="D363">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B364" t="s">
         <v>18</v>
@@ -7346,12 +7351,12 @@
         <v>380</v>
       </c>
       <c r="D364">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B365" t="s">
         <v>18</v>
@@ -7360,12 +7365,12 @@
         <v>381</v>
       </c>
       <c r="D365">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B366" t="s">
         <v>18</v>
@@ -7374,12 +7379,12 @@
         <v>382</v>
       </c>
       <c r="D366">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B367" t="s">
         <v>18</v>
@@ -7388,26 +7393,26 @@
         <v>383</v>
       </c>
       <c r="D367">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B368" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C368" t="s">
         <v>384</v>
       </c>
       <c r="D368">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B369" t="s">
         <v>24</v>
@@ -7416,12 +7421,12 @@
         <v>385</v>
       </c>
       <c r="D369">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B370" t="s">
         <v>24</v>
@@ -7430,12 +7435,12 @@
         <v>386</v>
       </c>
       <c r="D370">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B371" t="s">
         <v>24</v>
@@ -7444,12 +7449,12 @@
         <v>387</v>
       </c>
       <c r="D371">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B372" t="s">
         <v>24</v>
@@ -7458,12 +7463,12 @@
         <v>388</v>
       </c>
       <c r="D372">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B373" t="s">
         <v>24</v>
@@ -7472,12 +7477,12 @@
         <v>389</v>
       </c>
       <c r="D373">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B374" t="s">
         <v>24</v>
@@ -7486,26 +7491,26 @@
         <v>390</v>
       </c>
       <c r="D374">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
+        <v>360</v>
+      </c>
+      <c r="B375" t="s">
+        <v>24</v>
+      </c>
+      <c r="C375" t="s">
         <v>391</v>
       </c>
-      <c r="B375" t="s">
-        <v>5</v>
-      </c>
-      <c r="C375" t="s">
+      <c r="D375">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
         <v>392</v>
-      </c>
-      <c r="D375">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>391</v>
       </c>
       <c r="B376" t="s">
         <v>5</v>
@@ -7514,12 +7519,12 @@
         <v>393</v>
       </c>
       <c r="D376">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B377" t="s">
         <v>5</v>
@@ -7528,12 +7533,12 @@
         <v>394</v>
       </c>
       <c r="D377">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B378" t="s">
         <v>5</v>
@@ -7542,26 +7547,26 @@
         <v>395</v>
       </c>
       <c r="D378">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B379" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C379" t="s">
         <v>396</v>
       </c>
       <c r="D379">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B380" t="s">
         <v>9</v>
@@ -7570,12 +7575,12 @@
         <v>397</v>
       </c>
       <c r="D380">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B381" t="s">
         <v>9</v>
@@ -7584,12 +7589,12 @@
         <v>398</v>
       </c>
       <c r="D381">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B382" t="s">
         <v>9</v>
@@ -7601,9 +7606,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B383" t="s">
         <v>9</v>
@@ -7612,12 +7617,12 @@
         <v>400</v>
       </c>
       <c r="D383">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B384" t="s">
         <v>9</v>
@@ -7626,12 +7631,12 @@
         <v>401</v>
       </c>
       <c r="D384">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B385" t="s">
         <v>9</v>
@@ -7640,12 +7645,12 @@
         <v>402</v>
       </c>
       <c r="D385">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B386" t="s">
         <v>9</v>
@@ -7654,12 +7659,12 @@
         <v>403</v>
       </c>
       <c r="D386">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B387" t="s">
         <v>9</v>
@@ -7668,12 +7673,12 @@
         <v>404</v>
       </c>
       <c r="D387">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B388" t="s">
         <v>9</v>
@@ -7682,12 +7687,12 @@
         <v>405</v>
       </c>
       <c r="D388">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B389" t="s">
         <v>9</v>
@@ -7696,12 +7701,12 @@
         <v>406</v>
       </c>
       <c r="D389">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B390" t="s">
         <v>9</v>
@@ -7710,26 +7715,26 @@
         <v>407</v>
       </c>
       <c r="D390">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B391" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C391" t="s">
         <v>408</v>
       </c>
       <c r="D391">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B392" t="s">
         <v>18</v>
@@ -7738,12 +7743,12 @@
         <v>409</v>
       </c>
       <c r="D392">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B393" t="s">
         <v>18</v>
@@ -7752,12 +7757,12 @@
         <v>410</v>
       </c>
       <c r="D393">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B394" t="s">
         <v>18</v>
@@ -7766,12 +7771,12 @@
         <v>411</v>
       </c>
       <c r="D394">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B395" t="s">
         <v>18</v>
@@ -7780,12 +7785,12 @@
         <v>412</v>
       </c>
       <c r="D395">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B396" t="s">
         <v>18</v>
@@ -7794,12 +7799,12 @@
         <v>413</v>
       </c>
       <c r="D396">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B397" t="s">
         <v>18</v>
@@ -7808,26 +7813,26 @@
         <v>414</v>
       </c>
       <c r="D397">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B398" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C398" t="s">
         <v>415</v>
       </c>
       <c r="D398">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B399" t="s">
         <v>24</v>
@@ -7836,12 +7841,12 @@
         <v>416</v>
       </c>
       <c r="D399">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B400" t="s">
         <v>24</v>
@@ -7850,12 +7855,12 @@
         <v>417</v>
       </c>
       <c r="D400">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B401" t="s">
         <v>24</v>
@@ -7864,12 +7869,12 @@
         <v>418</v>
       </c>
       <c r="D401">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B402" t="s">
         <v>24</v>
@@ -7878,12 +7883,12 @@
         <v>419</v>
       </c>
       <c r="D402">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B403" t="s">
         <v>24</v>
@@ -7892,12 +7897,12 @@
         <v>420</v>
       </c>
       <c r="D403">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B404" t="s">
         <v>24</v>
@@ -7906,26 +7911,26 @@
         <v>421</v>
       </c>
       <c r="D404">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>392</v>
+      </c>
+      <c r="B405" t="s">
+        <v>24</v>
+      </c>
+      <c r="C405" t="s">
+        <v>422</v>
+      </c>
+      <c r="D405">
         <v>11</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
-        <v>422</v>
-      </c>
-      <c r="B405" t="s">
-        <v>5</v>
-      </c>
-      <c r="C405" t="s">
+    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
         <v>423</v>
-      </c>
-      <c r="D405">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
-        <v>422</v>
       </c>
       <c r="B406" t="s">
         <v>5</v>
@@ -7934,12 +7939,12 @@
         <v>424</v>
       </c>
       <c r="D406">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B407" t="s">
         <v>5</v>
@@ -7948,40 +7953,40 @@
         <v>425</v>
       </c>
       <c r="D407">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B408" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C408" t="s">
+        <v>426</v>
+      </c>
+      <c r="D408">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>423</v>
+      </c>
+      <c r="B409" t="s">
+        <v>9</v>
+      </c>
+      <c r="C409" t="s">
         <v>110</v>
-      </c>
-      <c r="D408">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>422</v>
-      </c>
-      <c r="B409" t="s">
-        <v>9</v>
-      </c>
-      <c r="C409" t="s">
-        <v>426</v>
       </c>
       <c r="D409">
         <v>11</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B410" t="s">
         <v>9</v>
@@ -7990,12 +7995,12 @@
         <v>427</v>
       </c>
       <c r="D410">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B411" t="s">
         <v>9</v>
@@ -8004,12 +8009,12 @@
         <v>428</v>
       </c>
       <c r="D411">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B412" t="s">
         <v>9</v>
@@ -8018,12 +8023,12 @@
         <v>429</v>
       </c>
       <c r="D412">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B413" t="s">
         <v>9</v>
@@ -8032,12 +8037,12 @@
         <v>430</v>
       </c>
       <c r="D413">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B414" t="s">
         <v>9</v>
@@ -8049,9 +8054,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B415" t="s">
         <v>9</v>
@@ -8060,12 +8065,12 @@
         <v>432</v>
       </c>
       <c r="D415">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B416" t="s">
         <v>9</v>
@@ -8074,26 +8079,26 @@
         <v>433</v>
       </c>
       <c r="D416">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B417" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C417" t="s">
         <v>434</v>
       </c>
       <c r="D417">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B418" t="s">
         <v>18</v>
@@ -8102,12 +8107,12 @@
         <v>435</v>
       </c>
       <c r="D418">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B419" t="s">
         <v>18</v>
@@ -8116,12 +8121,12 @@
         <v>436</v>
       </c>
       <c r="D419">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B420" t="s">
         <v>18</v>
@@ -8130,12 +8135,12 @@
         <v>437</v>
       </c>
       <c r="D420">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B421" t="s">
         <v>18</v>
@@ -8144,12 +8149,12 @@
         <v>438</v>
       </c>
       <c r="D421">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B422" t="s">
         <v>18</v>
@@ -8158,12 +8163,12 @@
         <v>439</v>
       </c>
       <c r="D422">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B423" t="s">
         <v>18</v>
@@ -8175,9 +8180,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B424" t="s">
         <v>18</v>
@@ -8186,12 +8191,12 @@
         <v>441</v>
       </c>
       <c r="D424">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B425" t="s">
         <v>18</v>
@@ -8200,26 +8205,26 @@
         <v>442</v>
       </c>
       <c r="D425">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B426" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C426" t="s">
         <v>443</v>
       </c>
       <c r="D426">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B427" t="s">
         <v>24</v>
@@ -8228,12 +8233,12 @@
         <v>444</v>
       </c>
       <c r="D427">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B428" t="s">
         <v>24</v>
@@ -8242,12 +8247,12 @@
         <v>445</v>
       </c>
       <c r="D428">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B429" t="s">
         <v>24</v>
@@ -8256,12 +8261,12 @@
         <v>446</v>
       </c>
       <c r="D429">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B430" t="s">
         <v>24</v>
@@ -8270,12 +8275,12 @@
         <v>447</v>
       </c>
       <c r="D430">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B431" t="s">
         <v>24</v>
@@ -8284,26 +8289,26 @@
         <v>448</v>
       </c>
       <c r="D431">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>423</v>
+      </c>
+      <c r="B432" t="s">
+        <v>24</v>
+      </c>
+      <c r="C432" t="s">
+        <v>449</v>
+      </c>
+      <c r="D432">
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
-        <v>449</v>
-      </c>
-      <c r="B432" t="s">
-        <v>5</v>
-      </c>
-      <c r="C432" t="s">
+    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
         <v>450</v>
-      </c>
-      <c r="D432">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
-        <v>449</v>
       </c>
       <c r="B433" t="s">
         <v>5</v>
@@ -8312,12 +8317,12 @@
         <v>451</v>
       </c>
       <c r="D433">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B434" t="s">
         <v>5</v>
@@ -8326,26 +8331,26 @@
         <v>452</v>
       </c>
       <c r="D434">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B435" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C435" t="s">
         <v>453</v>
       </c>
       <c r="D435">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B436" t="s">
         <v>9</v>
@@ -8354,12 +8359,12 @@
         <v>454</v>
       </c>
       <c r="D436">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B437" t="s">
         <v>9</v>
@@ -8368,12 +8373,12 @@
         <v>455</v>
       </c>
       <c r="D437">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B438" t="s">
         <v>9</v>
@@ -8385,9 +8390,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B439" t="s">
         <v>9</v>
@@ -8396,12 +8401,12 @@
         <v>457</v>
       </c>
       <c r="D439">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B440" t="s">
         <v>9</v>
@@ -8410,12 +8415,12 @@
         <v>458</v>
       </c>
       <c r="D440">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B441" t="s">
         <v>9</v>
@@ -8424,12 +8429,12 @@
         <v>459</v>
       </c>
       <c r="D441">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B442" t="s">
         <v>9</v>
@@ -8438,12 +8443,12 @@
         <v>460</v>
       </c>
       <c r="D442">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B443" t="s">
         <v>9</v>
@@ -8452,12 +8457,12 @@
         <v>461</v>
       </c>
       <c r="D443">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B444" t="s">
         <v>9</v>
@@ -8466,12 +8471,12 @@
         <v>462</v>
       </c>
       <c r="D444">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B445" t="s">
         <v>9</v>
@@ -8480,12 +8485,12 @@
         <v>463</v>
       </c>
       <c r="D445">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B446" t="s">
         <v>9</v>
@@ -8494,12 +8499,12 @@
         <v>464</v>
       </c>
       <c r="D446">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B447" t="s">
         <v>9</v>
@@ -8511,9 +8516,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B448" t="s">
         <v>9</v>
@@ -8525,23 +8530,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B449" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C449" t="s">
         <v>467</v>
       </c>
       <c r="D449">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B450" t="s">
         <v>18</v>
@@ -8553,9 +8558,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B451" t="s">
         <v>18</v>
@@ -8564,12 +8569,12 @@
         <v>469</v>
       </c>
       <c r="D451">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B452" t="s">
         <v>18</v>
@@ -8578,12 +8583,12 @@
         <v>470</v>
       </c>
       <c r="D452">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B453" t="s">
         <v>18</v>
@@ -8592,12 +8597,12 @@
         <v>471</v>
       </c>
       <c r="D453">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B454" t="s">
         <v>18</v>
@@ -8606,12 +8611,12 @@
         <v>472</v>
       </c>
       <c r="D454">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B455" t="s">
         <v>18</v>
@@ -8620,12 +8625,12 @@
         <v>473</v>
       </c>
       <c r="D455">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B456" t="s">
         <v>18</v>
@@ -8634,26 +8639,26 @@
         <v>474</v>
       </c>
       <c r="D456">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B457" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C457" t="s">
         <v>475</v>
       </c>
       <c r="D457">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B458" t="s">
         <v>24</v>
@@ -8662,12 +8667,12 @@
         <v>476</v>
       </c>
       <c r="D458">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B459" t="s">
         <v>24</v>
@@ -8676,12 +8681,12 @@
         <v>477</v>
       </c>
       <c r="D459">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B460" t="s">
         <v>24</v>
@@ -8690,12 +8695,12 @@
         <v>478</v>
       </c>
       <c r="D460">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B461" t="s">
         <v>24</v>
@@ -8704,12 +8709,12 @@
         <v>479</v>
       </c>
       <c r="D461">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B462" t="s">
         <v>24</v>
@@ -8718,12 +8723,12 @@
         <v>480</v>
       </c>
       <c r="D462">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B463" t="s">
         <v>24</v>
@@ -8732,12 +8737,12 @@
         <v>481</v>
       </c>
       <c r="D463">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B464" t="s">
         <v>24</v>
@@ -8746,26 +8751,26 @@
         <v>482</v>
       </c>
       <c r="D464">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>450</v>
+      </c>
+      <c r="B465" t="s">
+        <v>24</v>
+      </c>
+      <c r="C465" t="s">
+        <v>483</v>
+      </c>
+      <c r="D465">
         <v>11</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
-        <v>483</v>
-      </c>
-      <c r="B465" t="s">
-        <v>5</v>
-      </c>
-      <c r="C465" t="s">
+    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
         <v>484</v>
-      </c>
-      <c r="D465">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
-        <v>483</v>
       </c>
       <c r="B466" t="s">
         <v>5</v>
@@ -8774,12 +8779,12 @@
         <v>485</v>
       </c>
       <c r="D466">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B467" t="s">
         <v>5</v>
@@ -8788,26 +8793,26 @@
         <v>486</v>
       </c>
       <c r="D467">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B468" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C468" t="s">
         <v>487</v>
       </c>
       <c r="D468">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B469" t="s">
         <v>9</v>
@@ -8816,12 +8821,12 @@
         <v>488</v>
       </c>
       <c r="D469">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B470" t="s">
         <v>9</v>
@@ -8833,9 +8838,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B471" t="s">
         <v>9</v>
@@ -8844,12 +8849,12 @@
         <v>490</v>
       </c>
       <c r="D471">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B472" t="s">
         <v>9</v>
@@ -8861,9 +8866,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B473" t="s">
         <v>9</v>
@@ -8872,12 +8877,12 @@
         <v>492</v>
       </c>
       <c r="D473">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B474" t="s">
         <v>9</v>
@@ -8889,9 +8894,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B475" t="s">
         <v>9</v>
@@ -8900,12 +8905,12 @@
         <v>494</v>
       </c>
       <c r="D475">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B476" t="s">
         <v>9</v>
@@ -8914,12 +8919,12 @@
         <v>495</v>
       </c>
       <c r="D476">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B477" t="s">
         <v>9</v>
@@ -8928,26 +8933,26 @@
         <v>496</v>
       </c>
       <c r="D477">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B478" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C478" t="s">
         <v>497</v>
       </c>
       <c r="D478">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B479" t="s">
         <v>18</v>
@@ -8959,9 +8964,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B480" t="s">
         <v>18</v>
@@ -8970,12 +8975,12 @@
         <v>499</v>
       </c>
       <c r="D480">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B481" t="s">
         <v>18</v>
@@ -8984,12 +8989,12 @@
         <v>500</v>
       </c>
       <c r="D481">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B482" t="s">
         <v>18</v>
@@ -8998,12 +9003,12 @@
         <v>501</v>
       </c>
       <c r="D482">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B483" t="s">
         <v>18</v>
@@ -9012,12 +9017,12 @@
         <v>502</v>
       </c>
       <c r="D483">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B484" t="s">
         <v>18</v>
@@ -9026,12 +9031,12 @@
         <v>503</v>
       </c>
       <c r="D484">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B485" t="s">
         <v>18</v>
@@ -9040,12 +9045,12 @@
         <v>504</v>
       </c>
       <c r="D485">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B486" t="s">
         <v>18</v>
@@ -9054,26 +9059,26 @@
         <v>505</v>
       </c>
       <c r="D486">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B487" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C487" t="s">
         <v>506</v>
       </c>
       <c r="D487">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B488" t="s">
         <v>24</v>
@@ -9082,12 +9087,12 @@
         <v>507</v>
       </c>
       <c r="D488">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B489" t="s">
         <v>24</v>
@@ -9096,12 +9101,12 @@
         <v>508</v>
       </c>
       <c r="D489">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B490" t="s">
         <v>24</v>
@@ -9110,12 +9115,12 @@
         <v>509</v>
       </c>
       <c r="D490">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B491" t="s">
         <v>24</v>
@@ -9124,12 +9129,12 @@
         <v>510</v>
       </c>
       <c r="D491">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B492" t="s">
         <v>24</v>
@@ -9138,12 +9143,12 @@
         <v>511</v>
       </c>
       <c r="D492">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B493" t="s">
         <v>24</v>
@@ -9152,26 +9157,26 @@
         <v>512</v>
       </c>
       <c r="D493">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>484</v>
+      </c>
+      <c r="B494" t="s">
+        <v>24</v>
+      </c>
+      <c r="C494" t="s">
+        <v>513</v>
+      </c>
+      <c r="D494">
         <v>11</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
-        <v>513</v>
-      </c>
-      <c r="B494" t="s">
-        <v>5</v>
-      </c>
-      <c r="C494" t="s">
+    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
         <v>514</v>
-      </c>
-      <c r="D494">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
-        <v>513</v>
       </c>
       <c r="B495" t="s">
         <v>5</v>
@@ -9180,12 +9185,12 @@
         <v>515</v>
       </c>
       <c r="D495">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B496" t="s">
         <v>5</v>
@@ -9194,26 +9199,26 @@
         <v>516</v>
       </c>
       <c r="D496">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B497" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C497" t="s">
         <v>517</v>
       </c>
       <c r="D497">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B498" t="s">
         <v>9</v>
@@ -9222,12 +9227,12 @@
         <v>518</v>
       </c>
       <c r="D498">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B499" t="s">
         <v>9</v>
@@ -9236,12 +9241,12 @@
         <v>519</v>
       </c>
       <c r="D499">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B500" t="s">
         <v>9</v>
@@ -9250,12 +9255,12 @@
         <v>520</v>
       </c>
       <c r="D500">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B501" t="s">
         <v>9</v>
@@ -9264,12 +9269,12 @@
         <v>521</v>
       </c>
       <c r="D501">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B502" t="s">
         <v>9</v>
@@ -9278,12 +9283,12 @@
         <v>522</v>
       </c>
       <c r="D502">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B503" t="s">
         <v>9</v>
@@ -9292,26 +9297,26 @@
         <v>523</v>
       </c>
       <c r="D503">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B504" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C504" t="s">
         <v>524</v>
       </c>
       <c r="D504">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B505" t="s">
         <v>18</v>
@@ -9320,12 +9325,12 @@
         <v>525</v>
       </c>
       <c r="D505">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B506" t="s">
         <v>18</v>
@@ -9334,12 +9339,12 @@
         <v>526</v>
       </c>
       <c r="D506">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B507" t="s">
         <v>18</v>
@@ -9348,12 +9353,12 @@
         <v>527</v>
       </c>
       <c r="D507">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B508" t="s">
         <v>18</v>
@@ -9362,12 +9367,12 @@
         <v>528</v>
       </c>
       <c r="D508">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B509" t="s">
         <v>18</v>
@@ -9376,12 +9381,12 @@
         <v>529</v>
       </c>
       <c r="D509">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B510" t="s">
         <v>18</v>
@@ -9393,9 +9398,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B511" t="s">
         <v>18</v>
@@ -9404,26 +9409,26 @@
         <v>531</v>
       </c>
       <c r="D511">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B512" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C512" t="s">
         <v>532</v>
       </c>
       <c r="D512">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B513" t="s">
         <v>24</v>
@@ -9435,9 +9440,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B514" t="s">
         <v>24</v>
@@ -9446,12 +9451,12 @@
         <v>534</v>
       </c>
       <c r="D514">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B515" t="s">
         <v>24</v>
@@ -9463,9 +9468,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B516" t="s">
         <v>24</v>
@@ -9474,12 +9479,12 @@
         <v>536</v>
       </c>
       <c r="D516">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B517" t="s">
         <v>24</v>
@@ -9491,9 +9496,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B518" t="s">
         <v>24</v>
@@ -9502,26 +9507,26 @@
         <v>538</v>
       </c>
       <c r="D518">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>514</v>
+      </c>
+      <c r="B519" t="s">
+        <v>24</v>
+      </c>
+      <c r="C519" t="s">
+        <v>539</v>
+      </c>
+      <c r="D519">
         <v>14</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A519" t="s">
-        <v>539</v>
-      </c>
-      <c r="B519" t="s">
-        <v>5</v>
-      </c>
-      <c r="C519" t="s">
+    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
         <v>540</v>
-      </c>
-      <c r="D519">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
-        <v>539</v>
       </c>
       <c r="B520" t="s">
         <v>5</v>
@@ -9533,23 +9538,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B521" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C521" t="s">
         <v>542</v>
       </c>
       <c r="D521">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B522" t="s">
         <v>9</v>
@@ -9558,12 +9563,12 @@
         <v>543</v>
       </c>
       <c r="D522">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B523" t="s">
         <v>9</v>
@@ -9572,12 +9577,12 @@
         <v>544</v>
       </c>
       <c r="D523">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B524" t="s">
         <v>9</v>
@@ -9586,12 +9591,12 @@
         <v>545</v>
       </c>
       <c r="D524">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B525" t="s">
         <v>9</v>
@@ -9600,12 +9605,12 @@
         <v>546</v>
       </c>
       <c r="D525">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B526" t="s">
         <v>9</v>
@@ -9614,12 +9619,12 @@
         <v>547</v>
       </c>
       <c r="D526">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B527" t="s">
         <v>9</v>
@@ -9631,9 +9636,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B528" t="s">
         <v>9</v>
@@ -9642,12 +9647,12 @@
         <v>549</v>
       </c>
       <c r="D528">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B529" t="s">
         <v>9</v>
@@ -9656,26 +9661,26 @@
         <v>550</v>
       </c>
       <c r="D529">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B530" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C530" t="s">
         <v>551</v>
       </c>
       <c r="D530">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B531" t="s">
         <v>18</v>
@@ -9684,12 +9689,12 @@
         <v>552</v>
       </c>
       <c r="D531">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B532" t="s">
         <v>18</v>
@@ -9698,12 +9703,12 @@
         <v>553</v>
       </c>
       <c r="D532">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B533" t="s">
         <v>18</v>
@@ -9715,9 +9720,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B534" t="s">
         <v>18</v>
@@ -9726,12 +9731,12 @@
         <v>555</v>
       </c>
       <c r="D534">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B535" t="s">
         <v>18</v>
@@ -9740,12 +9745,12 @@
         <v>556</v>
       </c>
       <c r="D535">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B536" t="s">
         <v>18</v>
@@ -9754,12 +9759,12 @@
         <v>557</v>
       </c>
       <c r="D536">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B537" t="s">
         <v>18</v>
@@ -9768,12 +9773,12 @@
         <v>558</v>
       </c>
       <c r="D537">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B538" t="s">
         <v>18</v>
@@ -9782,12 +9787,12 @@
         <v>559</v>
       </c>
       <c r="D538">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B539" t="s">
         <v>18</v>
@@ -9796,12 +9801,12 @@
         <v>560</v>
       </c>
       <c r="D539">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B540" t="s">
         <v>18</v>
@@ -9810,26 +9815,26 @@
         <v>561</v>
       </c>
       <c r="D540">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B541" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C541" t="s">
         <v>562</v>
       </c>
       <c r="D541">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B542" t="s">
         <v>24</v>
@@ -9838,12 +9843,12 @@
         <v>563</v>
       </c>
       <c r="D542">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B543" t="s">
         <v>24</v>
@@ -9855,9 +9860,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B544" t="s">
         <v>24</v>
@@ -9866,12 +9871,12 @@
         <v>565</v>
       </c>
       <c r="D544">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B545" t="s">
         <v>24</v>
@@ -9880,12 +9885,12 @@
         <v>566</v>
       </c>
       <c r="D545">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B546" t="s">
         <v>24</v>
@@ -9894,26 +9899,26 @@
         <v>567</v>
       </c>
       <c r="D546">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>540</v>
+      </c>
+      <c r="B547" t="s">
+        <v>24</v>
+      </c>
+      <c r="C547" t="s">
+        <v>568</v>
+      </c>
+      <c r="D547">
         <v>10</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A547" t="s">
-        <v>568</v>
-      </c>
-      <c r="B547" t="s">
-        <v>5</v>
-      </c>
-      <c r="C547" t="s">
+    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
         <v>569</v>
-      </c>
-      <c r="D547">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A548" t="s">
-        <v>568</v>
       </c>
       <c r="B548" t="s">
         <v>5</v>
@@ -9922,12 +9927,12 @@
         <v>570</v>
       </c>
       <c r="D548">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B549" t="s">
         <v>5</v>
@@ -9936,26 +9941,26 @@
         <v>571</v>
       </c>
       <c r="D549">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B550" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C550" t="s">
         <v>572</v>
       </c>
       <c r="D550">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B551" t="s">
         <v>9</v>
@@ -9964,12 +9969,12 @@
         <v>573</v>
       </c>
       <c r="D551">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B552" t="s">
         <v>9</v>
@@ -9978,12 +9983,12 @@
         <v>574</v>
       </c>
       <c r="D552">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B553" t="s">
         <v>9</v>
@@ -9992,12 +9997,12 @@
         <v>575</v>
       </c>
       <c r="D553">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B554" t="s">
         <v>9</v>
@@ -10006,12 +10011,12 @@
         <v>576</v>
       </c>
       <c r="D554">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B555" t="s">
         <v>9</v>
@@ -10020,12 +10025,12 @@
         <v>577</v>
       </c>
       <c r="D555">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B556" t="s">
         <v>9</v>
@@ -10037,9 +10042,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B557" t="s">
         <v>9</v>
@@ -10048,12 +10053,12 @@
         <v>579</v>
       </c>
       <c r="D557">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B558" t="s">
         <v>9</v>
@@ -10062,12 +10067,12 @@
         <v>580</v>
       </c>
       <c r="D558">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B559" t="s">
         <v>9</v>
@@ -10076,12 +10081,12 @@
         <v>581</v>
       </c>
       <c r="D559">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B560" t="s">
         <v>9</v>
@@ -10093,23 +10098,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B561" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C561" t="s">
         <v>583</v>
       </c>
       <c r="D561">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B562" t="s">
         <v>18</v>
@@ -10118,12 +10123,12 @@
         <v>584</v>
       </c>
       <c r="D562">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B563" t="s">
         <v>18</v>
@@ -10132,12 +10137,12 @@
         <v>585</v>
       </c>
       <c r="D563">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B564" t="s">
         <v>18</v>
@@ -10146,12 +10151,12 @@
         <v>586</v>
       </c>
       <c r="D564">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B565" t="s">
         <v>18</v>
@@ -10160,12 +10165,12 @@
         <v>587</v>
       </c>
       <c r="D565">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B566" t="s">
         <v>18</v>
@@ -10174,12 +10179,12 @@
         <v>588</v>
       </c>
       <c r="D566">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B567" t="s">
         <v>18</v>
@@ -10191,9 +10196,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B568" t="s">
         <v>18</v>
@@ -10202,12 +10207,12 @@
         <v>590</v>
       </c>
       <c r="D568">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B569" t="s">
         <v>18</v>
@@ -10216,26 +10221,26 @@
         <v>591</v>
       </c>
       <c r="D569">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B570" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C570" t="s">
         <v>592</v>
       </c>
       <c r="D570">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B571" t="s">
         <v>24</v>
@@ -10244,12 +10249,12 @@
         <v>593</v>
       </c>
       <c r="D571">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B572" t="s">
         <v>24</v>
@@ -10258,12 +10263,12 @@
         <v>594</v>
       </c>
       <c r="D572">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B573" t="s">
         <v>24</v>
@@ -10275,9 +10280,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B574" t="s">
         <v>24</v>
@@ -10286,12 +10291,12 @@
         <v>596</v>
       </c>
       <c r="D574">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B575" t="s">
         <v>24</v>
@@ -10300,12 +10305,12 @@
         <v>597</v>
       </c>
       <c r="D575">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B576" t="s">
         <v>24</v>
@@ -10317,8 +10322,28 @@
         <v>14</v>
       </c>
     </row>
+    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>569</v>
+      </c>
+      <c r="B577" t="s">
+        <v>24</v>
+      </c>
+      <c r="C577" t="s">
+        <v>599</v>
+      </c>
+      <c r="D577">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D576" xr:uid="{BAB1F9E9-06F4-4FFD-8ED9-371667988A0B}"/>
+  <autoFilter ref="A1:D577" xr:uid="{BAB1F9E9-06F4-4FFD-8ED9-371667988A0B}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="REAL SOCIEDAD"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
